--- a/carsPriced.xlsx
+++ b/carsPriced.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -490,7 +490,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2767.147444333316</v>
+        <v>2743.782948899639</v>
       </c>
     </row>
     <row r="3">
@@ -519,7 +519,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1949.91314418066</v>
+        <v>1933.448991955388</v>
       </c>
     </row>
     <row r="4">
@@ -548,7 +548,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>75.40664315418225</v>
+        <v>74.76994481949365</v>
       </c>
     </row>
     <row r="5">
@@ -576,7 +576,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2767.147444333316</v>
+        <v>2743.782948899639</v>
       </c>
     </row>
     <row r="6">
@@ -605,7 +605,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1949.91314418066</v>
+        <v>1933.448991955388</v>
       </c>
     </row>
     <row r="7">
@@ -634,7 +634,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>75.40664315418225</v>
+        <v>74.76994481949365</v>
       </c>
     </row>
     <row r="8">
@@ -662,7 +662,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2767.147444333316</v>
+        <v>2743.782948899639</v>
       </c>
     </row>
     <row r="9">
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1949.91314418066</v>
+        <v>1933.448991955388</v>
       </c>
     </row>
     <row r="10">
@@ -720,7 +720,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>75.40664315418225</v>
+        <v>74.76994481949365</v>
       </c>
     </row>
     <row r="11">
@@ -748,7 +748,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2767.147444333316</v>
+        <v>2743.782948899639</v>
       </c>
     </row>
     <row r="12">
@@ -777,7 +777,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1949.91314418066</v>
+        <v>1933.448991955388</v>
       </c>
     </row>
     <row r="13">
@@ -806,7 +806,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>75.40664315418225</v>
+        <v>74.76994481949365</v>
       </c>
     </row>
     <row r="14">
@@ -834,7 +834,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2767.147444333316</v>
+        <v>2743.782948899639</v>
       </c>
     </row>
     <row r="15">
@@ -863,7 +863,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1949.91314418066</v>
+        <v>1933.448991955388</v>
       </c>
     </row>
     <row r="16">
@@ -892,7 +892,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>75.40664315418225</v>
+        <v>74.76994481949365</v>
       </c>
     </row>
     <row r="17">
@@ -920,7 +920,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2767.147444333316</v>
+        <v>2743.782948899639</v>
       </c>
     </row>
     <row r="18">
@@ -949,7 +949,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1949.91314418066</v>
+        <v>1933.448991955388</v>
       </c>
     </row>
     <row r="19">
@@ -978,7 +978,7 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>75.40664315418225</v>
+        <v>74.76994481949365</v>
       </c>
     </row>
     <row r="20">
@@ -1006,7 +1006,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2767.147444333316</v>
+        <v>2743.782948899639</v>
       </c>
     </row>
     <row r="21">
@@ -1035,7 +1035,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1949.91314418066</v>
+        <v>1933.448991955388</v>
       </c>
     </row>
     <row r="22">
@@ -1064,7 +1064,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>75.40664315418225</v>
+        <v>74.76994481949365</v>
       </c>
     </row>
     <row r="23">
@@ -1092,7 +1092,7 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2767.147444333316</v>
+        <v>2743.782948899639</v>
       </c>
     </row>
     <row r="24">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1949.91314418066</v>
+        <v>1933.448991955388</v>
       </c>
     </row>
     <row r="25">
@@ -1150,7 +1150,7 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>75.40664315418225</v>
+        <v>74.76994481949365</v>
       </c>
     </row>
     <row r="26">
@@ -1178,7 +1178,7 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2767.147444333316</v>
+        <v>2743.782948899639</v>
       </c>
     </row>
     <row r="27">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1949.91314418066</v>
+        <v>1933.448991955388</v>
       </c>
     </row>
     <row r="28">
@@ -1236,7 +1236,7 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>75.40664315418225</v>
+        <v>74.76994481949365</v>
       </c>
     </row>
     <row r="29">
@@ -1264,7 +1264,7 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2767.147444333316</v>
+        <v>2743.782948899639</v>
       </c>
     </row>
     <row r="30">
@@ -1293,7 +1293,7 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1949.91314418066</v>
+        <v>1933.448991955388</v>
       </c>
     </row>
     <row r="31">
@@ -1322,7 +1322,7 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>75.40664315418225</v>
+        <v>74.76994481949365</v>
       </c>
     </row>
     <row r="32">
@@ -1350,7 +1350,7 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2767.147444333316</v>
+        <v>2743.782948899639</v>
       </c>
     </row>
     <row r="33">
@@ -1379,7 +1379,7 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1949.91314418066</v>
+        <v>1933.448991955388</v>
       </c>
     </row>
     <row r="34">
@@ -1408,7 +1408,7 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>75.40664315418225</v>
+        <v>74.76994481949365</v>
       </c>
     </row>
     <row r="35">
@@ -1436,7 +1436,7 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2767.147444333316</v>
+        <v>2743.782948899639</v>
       </c>
     </row>
     <row r="36">
@@ -1465,7 +1465,7 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1949.91314418066</v>
+        <v>1933.448991955388</v>
       </c>
     </row>
     <row r="37">
@@ -1494,7 +1494,7 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>75.40664315418225</v>
+        <v>74.76994481949365</v>
       </c>
     </row>
     <row r="38">
@@ -1522,7 +1522,7 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>2767.147444333316</v>
+        <v>2743.782948899639</v>
       </c>
     </row>
     <row r="39">
@@ -1551,7 +1551,7 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>1949.91314418066</v>
+        <v>1933.448991955388</v>
       </c>
     </row>
     <row r="40">
@@ -1580,7 +1580,7 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>75.40664315418225</v>
+        <v>74.76994481949365</v>
       </c>
     </row>
     <row r="41">
@@ -1608,7 +1608,7 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>2767.147444333316</v>
+        <v>2743.782948899639</v>
       </c>
     </row>
     <row r="42">
@@ -1637,7 +1637,7 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>1949.91314418066</v>
+        <v>1933.448991955388</v>
       </c>
     </row>
     <row r="43">
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>75.40664315418225</v>
+        <v>74.76994481949365</v>
       </c>
     </row>
     <row r="44">
@@ -1694,7 +1694,7 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>2767.147444333316</v>
+        <v>2743.782948899639</v>
       </c>
     </row>
     <row r="45">
@@ -1723,7 +1723,7 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>1949.91314418066</v>
+        <v>1933.448991955388</v>
       </c>
     </row>
     <row r="46">
@@ -1752,7 +1752,7 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>75.40664315418225</v>
+        <v>74.76994481949365</v>
       </c>
     </row>
     <row r="47">
@@ -1780,7 +1780,7 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>2767.147444333316</v>
+        <v>2743.782948899639</v>
       </c>
     </row>
     <row r="48">
@@ -1809,7 +1809,7 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1949.91314418066</v>
+        <v>1933.448991955388</v>
       </c>
     </row>
     <row r="49">
@@ -1838,7 +1838,7 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>75.40664315418225</v>
+        <v>74.76994481949365</v>
       </c>
     </row>
     <row r="50">
@@ -1866,7 +1866,7 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>2767.147444333316</v>
+        <v>2743.782948899639</v>
       </c>
     </row>
     <row r="51">
@@ -1895,7 +1895,7 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>1949.91314418066</v>
+        <v>1933.448991955388</v>
       </c>
     </row>
     <row r="52">
@@ -1924,7 +1924,7 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>75.40664315418225</v>
+        <v>74.76994481949365</v>
       </c>
     </row>
     <row r="53">
@@ -1952,7 +1952,7 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>2767.147444333316</v>
+        <v>2743.782948899639</v>
       </c>
     </row>
     <row r="54">
@@ -1981,7 +1981,7 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>1949.91314418066</v>
+        <v>1933.448991955388</v>
       </c>
     </row>
     <row r="55">
@@ -2010,7 +2010,7 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>75.40664315418225</v>
+        <v>74.76994481949365</v>
       </c>
     </row>
     <row r="56">
@@ -2038,7 +2038,7 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>2767.147444333316</v>
+        <v>2743.782948899639</v>
       </c>
     </row>
     <row r="57">
@@ -2067,7 +2067,7 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>1949.91314418066</v>
+        <v>1933.448991955388</v>
       </c>
     </row>
     <row r="58">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>75.40664315418225</v>
+        <v>74.76994481949365</v>
       </c>
     </row>
     <row r="59">
@@ -2124,7 +2124,7 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>2767.147444333316</v>
+        <v>2743.782948899639</v>
       </c>
     </row>
     <row r="60">
@@ -2153,7 +2153,7 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>1949.91314418066</v>
+        <v>1933.448991955388</v>
       </c>
     </row>
     <row r="61">
@@ -2182,7 +2182,7 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>75.40664315418225</v>
+        <v>74.76994481949365</v>
       </c>
     </row>
     <row r="62">
@@ -2210,7 +2210,7 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>27671.47444333316</v>
+        <v>27437.82948899639</v>
       </c>
     </row>
     <row r="63">
@@ -2239,7 +2239,7 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>19499.1314418066</v>
+        <v>19334.48991955388</v>
       </c>
     </row>
     <row r="64">
@@ -2268,7 +2268,7 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>754.0664315418225</v>
+        <v>747.6994481949365</v>
       </c>
     </row>
     <row r="65">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>27671.47444333316</v>
+        <v>27437.82948899639</v>
       </c>
     </row>
     <row r="66">
@@ -2325,7 +2325,7 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>19499.1314418066</v>
+        <v>19334.48991955388</v>
       </c>
     </row>
     <row r="67">
@@ -2354,7 +2354,7 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>754.0664315418225</v>
+        <v>747.6994481949365</v>
       </c>
     </row>
     <row r="68">
@@ -2382,7 +2382,7 @@
         </is>
       </c>
       <c r="F68" t="n">
-        <v>27671.47444333316</v>
+        <v>27437.82948899639</v>
       </c>
     </row>
     <row r="69">
@@ -2411,7 +2411,7 @@
         </is>
       </c>
       <c r="F69" t="n">
-        <v>19499.1314418066</v>
+        <v>19334.48991955388</v>
       </c>
     </row>
     <row r="70">
@@ -2440,7 +2440,7 @@
         </is>
       </c>
       <c r="F70" t="n">
-        <v>754.0664315418225</v>
+        <v>747.6994481949365</v>
       </c>
     </row>
     <row r="71">
@@ -2468,7 +2468,7 @@
         </is>
       </c>
       <c r="F71" t="n">
-        <v>27671.47444333316</v>
+        <v>27437.82948899639</v>
       </c>
     </row>
     <row r="72">
@@ -2497,7 +2497,7 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>19499.1314418066</v>
+        <v>19334.48991955388</v>
       </c>
     </row>
     <row r="73">
@@ -2526,7 +2526,7 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>754.0664315418225</v>
+        <v>747.6994481949365</v>
       </c>
     </row>
     <row r="74">
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="F74" t="n">
-        <v>27671.47444333316</v>
+        <v>27437.82948899639</v>
       </c>
     </row>
     <row r="75">
@@ -2583,7 +2583,7 @@
         </is>
       </c>
       <c r="F75" t="n">
-        <v>19499.1314418066</v>
+        <v>19334.48991955388</v>
       </c>
     </row>
     <row r="76">
@@ -2612,7 +2612,7 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>754.0664315418225</v>
+        <v>747.6994481949365</v>
       </c>
     </row>
     <row r="77">
@@ -2640,7 +2640,7 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>27671.47444333316</v>
+        <v>27437.82948899639</v>
       </c>
     </row>
     <row r="78">
@@ -2669,7 +2669,7 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>19499.1314418066</v>
+        <v>19334.48991955388</v>
       </c>
     </row>
     <row r="79">
@@ -2698,7 +2698,7 @@
         </is>
       </c>
       <c r="F79" t="n">
-        <v>754.0664315418225</v>
+        <v>747.6994481949365</v>
       </c>
     </row>
     <row r="80">
@@ -2726,7 +2726,7 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>27671.47444333316</v>
+        <v>27437.82948899639</v>
       </c>
     </row>
     <row r="81">
@@ -2755,7 +2755,7 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>19499.1314418066</v>
+        <v>19334.48991955388</v>
       </c>
     </row>
     <row r="82">
@@ -2784,7 +2784,7 @@
         </is>
       </c>
       <c r="F82" t="n">
-        <v>754.0664315418225</v>
+        <v>747.6994481949365</v>
       </c>
     </row>
     <row r="83">
@@ -2812,7 +2812,7 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>27671.47444333316</v>
+        <v>27437.82948899639</v>
       </c>
     </row>
     <row r="84">
@@ -2841,7 +2841,7 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>19499.1314418066</v>
+        <v>19334.48991955388</v>
       </c>
     </row>
     <row r="85">
@@ -2870,7 +2870,7 @@
         </is>
       </c>
       <c r="F85" t="n">
-        <v>754.0664315418225</v>
+        <v>747.6994481949365</v>
       </c>
     </row>
     <row r="86">
@@ -2898,7 +2898,7 @@
         </is>
       </c>
       <c r="F86" t="n">
-        <v>27671.47444333316</v>
+        <v>27437.82948899639</v>
       </c>
     </row>
     <row r="87">
@@ -2927,7 +2927,7 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>19499.1314418066</v>
+        <v>19334.48991955388</v>
       </c>
     </row>
     <row r="88">
@@ -2956,7 +2956,7 @@
         </is>
       </c>
       <c r="F88" t="n">
-        <v>754.0664315418225</v>
+        <v>747.6994481949365</v>
       </c>
     </row>
     <row r="89">
@@ -2984,7 +2984,7 @@
         </is>
       </c>
       <c r="F89" t="n">
-        <v>27671.47444333316</v>
+        <v>27437.82948899639</v>
       </c>
     </row>
     <row r="90">
@@ -3013,7 +3013,7 @@
         </is>
       </c>
       <c r="F90" t="n">
-        <v>19499.1314418066</v>
+        <v>19334.48991955388</v>
       </c>
     </row>
     <row r="91">
@@ -3042,7 +3042,7 @@
         </is>
       </c>
       <c r="F91" t="n">
-        <v>754.0664315418225</v>
+        <v>747.6994481949365</v>
       </c>
     </row>
     <row r="92">
@@ -3070,7 +3070,7 @@
         </is>
       </c>
       <c r="F92" t="n">
-        <v>27671.47444333316</v>
+        <v>27437.82948899639</v>
       </c>
     </row>
     <row r="93">
@@ -3099,7 +3099,7 @@
         </is>
       </c>
       <c r="F93" t="n">
-        <v>19499.1314418066</v>
+        <v>19334.48991955388</v>
       </c>
     </row>
     <row r="94">
@@ -3128,7 +3128,7 @@
         </is>
       </c>
       <c r="F94" t="n">
-        <v>754.0664315418225</v>
+        <v>747.6994481949365</v>
       </c>
     </row>
     <row r="95">
@@ -3156,7 +3156,7 @@
         </is>
       </c>
       <c r="F95" t="n">
-        <v>27671.47444333316</v>
+        <v>27437.82948899639</v>
       </c>
     </row>
     <row r="96">
@@ -3185,7 +3185,7 @@
         </is>
       </c>
       <c r="F96" t="n">
-        <v>19499.1314418066</v>
+        <v>19334.48991955388</v>
       </c>
     </row>
     <row r="97">
@@ -3214,7 +3214,7 @@
         </is>
       </c>
       <c r="F97" t="n">
-        <v>754.0664315418225</v>
+        <v>747.6994481949365</v>
       </c>
     </row>
     <row r="98">
@@ -3242,7 +3242,7 @@
         </is>
       </c>
       <c r="F98" t="n">
-        <v>27671.47444333316</v>
+        <v>27437.82948899639</v>
       </c>
     </row>
     <row r="99">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="F99" t="n">
-        <v>19499.1314418066</v>
+        <v>19334.48991955388</v>
       </c>
     </row>
     <row r="100">
@@ -3300,7 +3300,7 @@
         </is>
       </c>
       <c r="F100" t="n">
-        <v>754.0664315418225</v>
+        <v>747.6994481949365</v>
       </c>
     </row>
     <row r="101">
@@ -3328,7 +3328,7 @@
         </is>
       </c>
       <c r="F101" t="n">
-        <v>27671.47444333316</v>
+        <v>27437.82948899639</v>
       </c>
     </row>
     <row r="102">
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="F102" t="n">
-        <v>19499.1314418066</v>
+        <v>19334.48991955388</v>
       </c>
     </row>
     <row r="103">
@@ -3386,7 +3386,7 @@
         </is>
       </c>
       <c r="F103" t="n">
-        <v>754.0664315418225</v>
+        <v>747.6994481949365</v>
       </c>
     </row>
     <row r="104">
@@ -3414,7 +3414,7 @@
         </is>
       </c>
       <c r="F104" t="n">
-        <v>27671.47444333316</v>
+        <v>27437.82948899639</v>
       </c>
     </row>
     <row r="105">
@@ -3443,7 +3443,7 @@
         </is>
       </c>
       <c r="F105" t="n">
-        <v>19499.1314418066</v>
+        <v>19334.48991955388</v>
       </c>
     </row>
     <row r="106">
@@ -3472,7 +3472,7 @@
         </is>
       </c>
       <c r="F106" t="n">
-        <v>754.0664315418225</v>
+        <v>747.6994481949365</v>
       </c>
     </row>
     <row r="107">
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="F107" t="n">
-        <v>27671.47444333316</v>
+        <v>27437.82948899639</v>
       </c>
     </row>
     <row r="108">
@@ -3529,7 +3529,7 @@
         </is>
       </c>
       <c r="F108" t="n">
-        <v>19499.1314418066</v>
+        <v>19334.48991955388</v>
       </c>
     </row>
     <row r="109">
@@ -3558,7 +3558,7 @@
         </is>
       </c>
       <c r="F109" t="n">
-        <v>754.0664315418225</v>
+        <v>747.6994481949365</v>
       </c>
     </row>
     <row r="110">
@@ -3586,7 +3586,7 @@
         </is>
       </c>
       <c r="F110" t="n">
-        <v>27671.47444333316</v>
+        <v>27437.82948899639</v>
       </c>
     </row>
     <row r="111">
@@ -3615,7 +3615,7 @@
         </is>
       </c>
       <c r="F111" t="n">
-        <v>19499.1314418066</v>
+        <v>19334.48991955388</v>
       </c>
     </row>
     <row r="112">
@@ -3644,7 +3644,7 @@
         </is>
       </c>
       <c r="F112" t="n">
-        <v>754.0664315418225</v>
+        <v>747.6994481949365</v>
       </c>
     </row>
     <row r="113">
@@ -3672,7 +3672,7 @@
         </is>
       </c>
       <c r="F113" t="n">
-        <v>27671.47444333316</v>
+        <v>27437.82948899639</v>
       </c>
     </row>
     <row r="114">
@@ -3701,7 +3701,7 @@
         </is>
       </c>
       <c r="F114" t="n">
-        <v>19499.1314418066</v>
+        <v>19334.48991955388</v>
       </c>
     </row>
     <row r="115">
@@ -3730,7 +3730,7 @@
         </is>
       </c>
       <c r="F115" t="n">
-        <v>754.0664315418225</v>
+        <v>747.6994481949365</v>
       </c>
     </row>
     <row r="116">
@@ -3758,7 +3758,7 @@
         </is>
       </c>
       <c r="F116" t="n">
-        <v>27671.47444333316</v>
+        <v>27437.82948899639</v>
       </c>
     </row>
     <row r="117">
@@ -3787,7 +3787,7 @@
         </is>
       </c>
       <c r="F117" t="n">
-        <v>19499.1314418066</v>
+        <v>19334.48991955388</v>
       </c>
     </row>
     <row r="118">
@@ -3816,7 +3816,7 @@
         </is>
       </c>
       <c r="F118" t="n">
-        <v>754.0664315418225</v>
+        <v>747.6994481949365</v>
       </c>
     </row>
     <row r="119">
@@ -3844,7 +3844,7 @@
         </is>
       </c>
       <c r="F119" t="n">
-        <v>27671.47444333316</v>
+        <v>27437.82948899639</v>
       </c>
     </row>
     <row r="120">
@@ -3873,7 +3873,7 @@
         </is>
       </c>
       <c r="F120" t="n">
-        <v>19499.1314418066</v>
+        <v>19334.48991955388</v>
       </c>
     </row>
     <row r="121">
@@ -3902,7 +3902,7 @@
         </is>
       </c>
       <c r="F121" t="n">
-        <v>754.0664315418225</v>
+        <v>747.6994481949365</v>
       </c>
     </row>
     <row r="122">
@@ -3930,7 +3930,7 @@
         </is>
       </c>
       <c r="F122" t="n">
-        <v>276714.7444333316</v>
+        <v>274378.2948899639</v>
       </c>
     </row>
     <row r="123">
@@ -3959,7 +3959,7 @@
         </is>
       </c>
       <c r="F123" t="n">
-        <v>194991.314418066</v>
+        <v>193344.8991955388</v>
       </c>
     </row>
     <row r="124">
@@ -3988,7 +3988,7 @@
         </is>
       </c>
       <c r="F124" t="n">
-        <v>7540.664315418224</v>
+        <v>7476.994481949365</v>
       </c>
     </row>
     <row r="125">
@@ -4016,7 +4016,7 @@
         </is>
       </c>
       <c r="F125" t="n">
-        <v>276714.7444333316</v>
+        <v>274378.2948899639</v>
       </c>
     </row>
     <row r="126">
@@ -4045,7 +4045,7 @@
         </is>
       </c>
       <c r="F126" t="n">
-        <v>194991.314418066</v>
+        <v>193344.8991955388</v>
       </c>
     </row>
     <row r="127">
@@ -4074,7 +4074,7 @@
         </is>
       </c>
       <c r="F127" t="n">
-        <v>7540.664315418224</v>
+        <v>7476.994481949365</v>
       </c>
     </row>
     <row r="128">
@@ -4102,7 +4102,7 @@
         </is>
       </c>
       <c r="F128" t="n">
-        <v>276714.7444333316</v>
+        <v>274378.2948899639</v>
       </c>
     </row>
     <row r="129">
@@ -4131,7 +4131,7 @@
         </is>
       </c>
       <c r="F129" t="n">
-        <v>194991.314418066</v>
+        <v>193344.8991955388</v>
       </c>
     </row>
     <row r="130">
@@ -4160,7 +4160,7 @@
         </is>
       </c>
       <c r="F130" t="n">
-        <v>7540.664315418224</v>
+        <v>7476.994481949365</v>
       </c>
     </row>
     <row r="131">
@@ -4188,7 +4188,7 @@
         </is>
       </c>
       <c r="F131" t="n">
-        <v>276714.7444333316</v>
+        <v>274378.2948899639</v>
       </c>
     </row>
     <row r="132">
@@ -4217,7 +4217,7 @@
         </is>
       </c>
       <c r="F132" t="n">
-        <v>194991.314418066</v>
+        <v>193344.8991955388</v>
       </c>
     </row>
     <row r="133">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="F133" t="n">
-        <v>7540.664315418224</v>
+        <v>7476.994481949365</v>
       </c>
     </row>
     <row r="134">
@@ -4274,7 +4274,7 @@
         </is>
       </c>
       <c r="F134" t="n">
-        <v>276714.7444333316</v>
+        <v>274378.2948899639</v>
       </c>
     </row>
     <row r="135">
@@ -4303,7 +4303,7 @@
         </is>
       </c>
       <c r="F135" t="n">
-        <v>194991.314418066</v>
+        <v>193344.8991955388</v>
       </c>
     </row>
     <row r="136">
@@ -4332,7 +4332,7 @@
         </is>
       </c>
       <c r="F136" t="n">
-        <v>7540.664315418224</v>
+        <v>7476.994481949365</v>
       </c>
     </row>
     <row r="137">
@@ -4360,7 +4360,7 @@
         </is>
       </c>
       <c r="F137" t="n">
-        <v>276714.7444333316</v>
+        <v>274378.2948899639</v>
       </c>
     </row>
     <row r="138">
@@ -4389,7 +4389,7 @@
         </is>
       </c>
       <c r="F138" t="n">
-        <v>194991.314418066</v>
+        <v>193344.8991955388</v>
       </c>
     </row>
     <row r="139">
@@ -4418,7 +4418,7 @@
         </is>
       </c>
       <c r="F139" t="n">
-        <v>7540.664315418224</v>
+        <v>7476.994481949365</v>
       </c>
     </row>
     <row r="140">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="F140" t="n">
-        <v>276714.7444333316</v>
+        <v>274378.2948899639</v>
       </c>
     </row>
     <row r="141">
@@ -4475,7 +4475,7 @@
         </is>
       </c>
       <c r="F141" t="n">
-        <v>194991.314418066</v>
+        <v>193344.8991955388</v>
       </c>
     </row>
     <row r="142">
@@ -4504,7 +4504,7 @@
         </is>
       </c>
       <c r="F142" t="n">
-        <v>7540.664315418224</v>
+        <v>7476.994481949365</v>
       </c>
     </row>
     <row r="143">
@@ -4532,7 +4532,7 @@
         </is>
       </c>
       <c r="F143" t="n">
-        <v>276714.7444333316</v>
+        <v>274378.2948899639</v>
       </c>
     </row>
     <row r="144">
@@ -4561,7 +4561,7 @@
         </is>
       </c>
       <c r="F144" t="n">
-        <v>194991.314418066</v>
+        <v>193344.8991955388</v>
       </c>
     </row>
     <row r="145">
@@ -4590,7 +4590,7 @@
         </is>
       </c>
       <c r="F145" t="n">
-        <v>7540.664315418224</v>
+        <v>7476.994481949365</v>
       </c>
     </row>
     <row r="146">
@@ -4618,7 +4618,7 @@
         </is>
       </c>
       <c r="F146" t="n">
-        <v>276714.7444333316</v>
+        <v>274378.2948899639</v>
       </c>
     </row>
     <row r="147">
@@ -4647,7 +4647,7 @@
         </is>
       </c>
       <c r="F147" t="n">
-        <v>194991.314418066</v>
+        <v>193344.8991955388</v>
       </c>
     </row>
     <row r="148">
@@ -4676,7 +4676,7 @@
         </is>
       </c>
       <c r="F148" t="n">
-        <v>7540.664315418224</v>
+        <v>7476.994481949365</v>
       </c>
     </row>
     <row r="149">
@@ -4704,7 +4704,7 @@
         </is>
       </c>
       <c r="F149" t="n">
-        <v>276714.7444333316</v>
+        <v>274378.2948899639</v>
       </c>
     </row>
     <row r="150">
@@ -4733,7 +4733,7 @@
         </is>
       </c>
       <c r="F150" t="n">
-        <v>194991.314418066</v>
+        <v>193344.8991955388</v>
       </c>
     </row>
     <row r="151">
@@ -4762,7 +4762,7 @@
         </is>
       </c>
       <c r="F151" t="n">
-        <v>7540.664315418224</v>
+        <v>7476.994481949365</v>
       </c>
     </row>
     <row r="152">
@@ -4790,7 +4790,7 @@
         </is>
       </c>
       <c r="F152" t="n">
-        <v>276714.7444333316</v>
+        <v>274378.2948899639</v>
       </c>
     </row>
     <row r="153">
@@ -4819,7 +4819,7 @@
         </is>
       </c>
       <c r="F153" t="n">
-        <v>194991.314418066</v>
+        <v>193344.8991955388</v>
       </c>
     </row>
     <row r="154">
@@ -4848,7 +4848,7 @@
         </is>
       </c>
       <c r="F154" t="n">
-        <v>7540.664315418224</v>
+        <v>7476.994481949365</v>
       </c>
     </row>
     <row r="155">
@@ -4876,7 +4876,7 @@
         </is>
       </c>
       <c r="F155" t="n">
-        <v>276714.7444333316</v>
+        <v>274378.2948899639</v>
       </c>
     </row>
     <row r="156">
@@ -4905,7 +4905,7 @@
         </is>
       </c>
       <c r="F156" t="n">
-        <v>194991.314418066</v>
+        <v>193344.8991955388</v>
       </c>
     </row>
     <row r="157">
@@ -4934,7 +4934,7 @@
         </is>
       </c>
       <c r="F157" t="n">
-        <v>7540.664315418224</v>
+        <v>7476.994481949365</v>
       </c>
     </row>
     <row r="158">
@@ -4962,7 +4962,7 @@
         </is>
       </c>
       <c r="F158" t="n">
-        <v>276714.7444333316</v>
+        <v>274378.2948899639</v>
       </c>
     </row>
     <row r="159">
@@ -4991,7 +4991,7 @@
         </is>
       </c>
       <c r="F159" t="n">
-        <v>194991.314418066</v>
+        <v>193344.8991955388</v>
       </c>
     </row>
     <row r="160">
@@ -5020,7 +5020,7 @@
         </is>
       </c>
       <c r="F160" t="n">
-        <v>7540.664315418224</v>
+        <v>7476.994481949365</v>
       </c>
     </row>
     <row r="161">
@@ -5048,7 +5048,7 @@
         </is>
       </c>
       <c r="F161" t="n">
-        <v>276714.7444333316</v>
+        <v>274378.2948899639</v>
       </c>
     </row>
     <row r="162">
@@ -5077,7 +5077,7 @@
         </is>
       </c>
       <c r="F162" t="n">
-        <v>194991.314418066</v>
+        <v>193344.8991955388</v>
       </c>
     </row>
     <row r="163">
@@ -5106,7 +5106,7 @@
         </is>
       </c>
       <c r="F163" t="n">
-        <v>7540.664315418224</v>
+        <v>7476.994481949365</v>
       </c>
     </row>
     <row r="164">
@@ -5134,7 +5134,7 @@
         </is>
       </c>
       <c r="F164" t="n">
-        <v>276714.7444333316</v>
+        <v>274378.2948899639</v>
       </c>
     </row>
     <row r="165">
@@ -5163,7 +5163,7 @@
         </is>
       </c>
       <c r="F165" t="n">
-        <v>194991.314418066</v>
+        <v>193344.8991955388</v>
       </c>
     </row>
     <row r="166">
@@ -5192,7 +5192,7 @@
         </is>
       </c>
       <c r="F166" t="n">
-        <v>7540.664315418224</v>
+        <v>7476.994481949365</v>
       </c>
     </row>
     <row r="167">
@@ -5220,7 +5220,7 @@
         </is>
       </c>
       <c r="F167" t="n">
-        <v>276714.7444333316</v>
+        <v>274378.2948899639</v>
       </c>
     </row>
     <row r="168">
@@ -5249,7 +5249,7 @@
         </is>
       </c>
       <c r="F168" t="n">
-        <v>194991.314418066</v>
+        <v>193344.8991955388</v>
       </c>
     </row>
     <row r="169">
@@ -5278,7 +5278,7 @@
         </is>
       </c>
       <c r="F169" t="n">
-        <v>7540.664315418224</v>
+        <v>7476.994481949365</v>
       </c>
     </row>
     <row r="170">
@@ -5306,7 +5306,7 @@
         </is>
       </c>
       <c r="F170" t="n">
-        <v>276714.7444333316</v>
+        <v>274378.2948899639</v>
       </c>
     </row>
     <row r="171">
@@ -5335,7 +5335,7 @@
         </is>
       </c>
       <c r="F171" t="n">
-        <v>194991.314418066</v>
+        <v>193344.8991955388</v>
       </c>
     </row>
     <row r="172">
@@ -5364,7 +5364,7 @@
         </is>
       </c>
       <c r="F172" t="n">
-        <v>7540.664315418224</v>
+        <v>7476.994481949365</v>
       </c>
     </row>
     <row r="173">
@@ -5392,7 +5392,7 @@
         </is>
       </c>
       <c r="F173" t="n">
-        <v>276714.7444333316</v>
+        <v>274378.2948899639</v>
       </c>
     </row>
     <row r="174">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="F174" t="n">
-        <v>194991.314418066</v>
+        <v>193344.8991955388</v>
       </c>
     </row>
     <row r="175">
@@ -5450,7 +5450,7 @@
         </is>
       </c>
       <c r="F175" t="n">
-        <v>7540.664315418224</v>
+        <v>7476.994481949365</v>
       </c>
     </row>
     <row r="176">
@@ -5478,7 +5478,7 @@
         </is>
       </c>
       <c r="F176" t="n">
-        <v>276714.7444333316</v>
+        <v>274378.2948899639</v>
       </c>
     </row>
     <row r="177">
@@ -5507,7 +5507,7 @@
         </is>
       </c>
       <c r="F177" t="n">
-        <v>194991.314418066</v>
+        <v>193344.8991955388</v>
       </c>
     </row>
     <row r="178">
@@ -5536,7 +5536,7 @@
         </is>
       </c>
       <c r="F178" t="n">
-        <v>7540.664315418224</v>
+        <v>7476.994481949365</v>
       </c>
     </row>
     <row r="179">
@@ -5564,7 +5564,7 @@
         </is>
       </c>
       <c r="F179" t="n">
-        <v>276714.7444333316</v>
+        <v>274378.2948899639</v>
       </c>
     </row>
     <row r="180">
@@ -5593,7 +5593,7 @@
         </is>
       </c>
       <c r="F180" t="n">
-        <v>194991.314418066</v>
+        <v>193344.8991955388</v>
       </c>
     </row>
     <row r="181">
@@ -5622,7 +5622,7 @@
         </is>
       </c>
       <c r="F181" t="n">
-        <v>7540.664315418224</v>
+        <v>7476.994481949365</v>
       </c>
     </row>
     <row r="182">
@@ -5650,7 +5650,7 @@
         </is>
       </c>
       <c r="F182" t="n">
-        <v>27671474.44333316</v>
+        <v>27437829.48899639</v>
       </c>
     </row>
     <row r="183">
@@ -5679,7 +5679,7 @@
         </is>
       </c>
       <c r="F183" t="n">
-        <v>19499131.4418066</v>
+        <v>19334489.91955388</v>
       </c>
     </row>
     <row r="184">
@@ -5708,7 +5708,7 @@
         </is>
       </c>
       <c r="F184" t="n">
-        <v>754066.4315418224</v>
+        <v>747699.4481949365</v>
       </c>
     </row>
     <row r="185">
@@ -5736,7 +5736,7 @@
         </is>
       </c>
       <c r="F185" t="n">
-        <v>27671474.44333316</v>
+        <v>27437829.48899639</v>
       </c>
     </row>
     <row r="186">
@@ -5765,7 +5765,7 @@
         </is>
       </c>
       <c r="F186" t="n">
-        <v>19499131.4418066</v>
+        <v>19334489.91955388</v>
       </c>
     </row>
     <row r="187">
@@ -5794,7 +5794,7 @@
         </is>
       </c>
       <c r="F187" t="n">
-        <v>754066.4315418224</v>
+        <v>747699.4481949365</v>
       </c>
     </row>
     <row r="188">
@@ -5822,7 +5822,7 @@
         </is>
       </c>
       <c r="F188" t="n">
-        <v>27671474.44333316</v>
+        <v>27437829.48899639</v>
       </c>
     </row>
     <row r="189">
@@ -5851,7 +5851,7 @@
         </is>
       </c>
       <c r="F189" t="n">
-        <v>19499131.4418066</v>
+        <v>19334489.91955388</v>
       </c>
     </row>
     <row r="190">
@@ -5880,7 +5880,7 @@
         </is>
       </c>
       <c r="F190" t="n">
-        <v>754066.4315418224</v>
+        <v>747699.4481949365</v>
       </c>
     </row>
     <row r="191">
@@ -5908,7 +5908,7 @@
         </is>
       </c>
       <c r="F191" t="n">
-        <v>27671474.44333316</v>
+        <v>27437829.48899639</v>
       </c>
     </row>
     <row r="192">
@@ -5937,7 +5937,7 @@
         </is>
       </c>
       <c r="F192" t="n">
-        <v>19499131.4418066</v>
+        <v>19334489.91955388</v>
       </c>
     </row>
     <row r="193">
@@ -5966,7 +5966,7 @@
         </is>
       </c>
       <c r="F193" t="n">
-        <v>754066.4315418224</v>
+        <v>747699.4481949365</v>
       </c>
     </row>
     <row r="194">
@@ -5994,7 +5994,7 @@
         </is>
       </c>
       <c r="F194" t="n">
-        <v>27671474.44333316</v>
+        <v>27437829.48899639</v>
       </c>
     </row>
     <row r="195">
@@ -6023,7 +6023,7 @@
         </is>
       </c>
       <c r="F195" t="n">
-        <v>19499131.4418066</v>
+        <v>19334489.91955388</v>
       </c>
     </row>
     <row r="196">
@@ -6052,7 +6052,7 @@
         </is>
       </c>
       <c r="F196" t="n">
-        <v>754066.4315418224</v>
+        <v>747699.4481949365</v>
       </c>
     </row>
     <row r="197">
@@ -6080,7 +6080,7 @@
         </is>
       </c>
       <c r="F197" t="n">
-        <v>27671474.44333316</v>
+        <v>27437829.48899639</v>
       </c>
     </row>
     <row r="198">
@@ -6109,7 +6109,7 @@
         </is>
       </c>
       <c r="F198" t="n">
-        <v>19499131.4418066</v>
+        <v>19334489.91955388</v>
       </c>
     </row>
     <row r="199">
@@ -6138,7 +6138,7 @@
         </is>
       </c>
       <c r="F199" t="n">
-        <v>754066.4315418224</v>
+        <v>747699.4481949365</v>
       </c>
     </row>
     <row r="200">
@@ -6166,7 +6166,7 @@
         </is>
       </c>
       <c r="F200" t="n">
-        <v>27671474.44333316</v>
+        <v>27437829.48899639</v>
       </c>
     </row>
     <row r="201">
@@ -6195,7 +6195,7 @@
         </is>
       </c>
       <c r="F201" t="n">
-        <v>19499131.4418066</v>
+        <v>19334489.91955388</v>
       </c>
     </row>
     <row r="202">
@@ -6224,7 +6224,7 @@
         </is>
       </c>
       <c r="F202" t="n">
-        <v>754066.4315418224</v>
+        <v>747699.4481949365</v>
       </c>
     </row>
     <row r="203">
@@ -6252,7 +6252,7 @@
         </is>
       </c>
       <c r="F203" t="n">
-        <v>27671474.44333316</v>
+        <v>27437829.48899639</v>
       </c>
     </row>
     <row r="204">
@@ -6281,7 +6281,7 @@
         </is>
       </c>
       <c r="F204" t="n">
-        <v>19499131.4418066</v>
+        <v>19334489.91955388</v>
       </c>
     </row>
     <row r="205">
@@ -6310,7 +6310,7 @@
         </is>
       </c>
       <c r="F205" t="n">
-        <v>754066.4315418224</v>
+        <v>747699.4481949365</v>
       </c>
     </row>
     <row r="206">
@@ -6338,7 +6338,7 @@
         </is>
       </c>
       <c r="F206" t="n">
-        <v>27671474.44333316</v>
+        <v>27437829.48899639</v>
       </c>
     </row>
     <row r="207">
@@ -6367,7 +6367,7 @@
         </is>
       </c>
       <c r="F207" t="n">
-        <v>19499131.4418066</v>
+        <v>19334489.91955388</v>
       </c>
     </row>
     <row r="208">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="F208" t="n">
-        <v>754066.4315418224</v>
+        <v>747699.4481949365</v>
       </c>
     </row>
     <row r="209">
@@ -6424,7 +6424,7 @@
         </is>
       </c>
       <c r="F209" t="n">
-        <v>27671474.44333316</v>
+        <v>27437829.48899639</v>
       </c>
     </row>
     <row r="210">
@@ -6453,7 +6453,7 @@
         </is>
       </c>
       <c r="F210" t="n">
-        <v>19499131.4418066</v>
+        <v>19334489.91955388</v>
       </c>
     </row>
     <row r="211">
@@ -6482,7 +6482,7 @@
         </is>
       </c>
       <c r="F211" t="n">
-        <v>754066.4315418224</v>
+        <v>747699.4481949365</v>
       </c>
     </row>
     <row r="212">
@@ -6510,7 +6510,7 @@
         </is>
       </c>
       <c r="F212" t="n">
-        <v>27671474.44333316</v>
+        <v>27437829.48899639</v>
       </c>
     </row>
     <row r="213">
@@ -6539,7 +6539,7 @@
         </is>
       </c>
       <c r="F213" t="n">
-        <v>19499131.4418066</v>
+        <v>19334489.91955388</v>
       </c>
     </row>
     <row r="214">
@@ -6568,7 +6568,7 @@
         </is>
       </c>
       <c r="F214" t="n">
-        <v>754066.4315418224</v>
+        <v>747699.4481949365</v>
       </c>
     </row>
     <row r="215">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="F215" t="n">
-        <v>27671474.44333316</v>
+        <v>27437829.48899639</v>
       </c>
     </row>
     <row r="216">
@@ -6625,7 +6625,7 @@
         </is>
       </c>
       <c r="F216" t="n">
-        <v>19499131.4418066</v>
+        <v>19334489.91955388</v>
       </c>
     </row>
     <row r="217">
@@ -6654,7 +6654,7 @@
         </is>
       </c>
       <c r="F217" t="n">
-        <v>754066.4315418224</v>
+        <v>747699.4481949365</v>
       </c>
     </row>
     <row r="218">
@@ -6682,7 +6682,7 @@
         </is>
       </c>
       <c r="F218" t="n">
-        <v>27671474.44333316</v>
+        <v>27437829.48899639</v>
       </c>
     </row>
     <row r="219">
@@ -6711,7 +6711,7 @@
         </is>
       </c>
       <c r="F219" t="n">
-        <v>19499131.4418066</v>
+        <v>19334489.91955388</v>
       </c>
     </row>
     <row r="220">
@@ -6740,7 +6740,7 @@
         </is>
       </c>
       <c r="F220" t="n">
-        <v>754066.4315418224</v>
+        <v>747699.4481949365</v>
       </c>
     </row>
     <row r="221">
@@ -6768,7 +6768,7 @@
         </is>
       </c>
       <c r="F221" t="n">
-        <v>27671474.44333316</v>
+        <v>27437829.48899639</v>
       </c>
     </row>
     <row r="222">
@@ -6797,7 +6797,7 @@
         </is>
       </c>
       <c r="F222" t="n">
-        <v>19499131.4418066</v>
+        <v>19334489.91955388</v>
       </c>
     </row>
     <row r="223">
@@ -6826,7 +6826,7 @@
         </is>
       </c>
       <c r="F223" t="n">
-        <v>754066.4315418224</v>
+        <v>747699.4481949365</v>
       </c>
     </row>
     <row r="224">
@@ -6854,7 +6854,7 @@
         </is>
       </c>
       <c r="F224" t="n">
-        <v>27671474.44333316</v>
+        <v>27437829.48899639</v>
       </c>
     </row>
     <row r="225">
@@ -6883,7 +6883,7 @@
         </is>
       </c>
       <c r="F225" t="n">
-        <v>19499131.4418066</v>
+        <v>19334489.91955388</v>
       </c>
     </row>
     <row r="226">
@@ -6912,7 +6912,7 @@
         </is>
       </c>
       <c r="F226" t="n">
-        <v>754066.4315418224</v>
+        <v>747699.4481949365</v>
       </c>
     </row>
     <row r="227">
@@ -6940,7 +6940,7 @@
         </is>
       </c>
       <c r="F227" t="n">
-        <v>27671474.44333316</v>
+        <v>27437829.48899639</v>
       </c>
     </row>
     <row r="228">
@@ -6969,7 +6969,7 @@
         </is>
       </c>
       <c r="F228" t="n">
-        <v>19499131.4418066</v>
+        <v>19334489.91955388</v>
       </c>
     </row>
     <row r="229">
@@ -6998,7 +6998,7 @@
         </is>
       </c>
       <c r="F229" t="n">
-        <v>754066.4315418224</v>
+        <v>747699.4481949365</v>
       </c>
     </row>
     <row r="230">
@@ -7026,7 +7026,7 @@
         </is>
       </c>
       <c r="F230" t="n">
-        <v>27671474.44333316</v>
+        <v>27437829.48899639</v>
       </c>
     </row>
     <row r="231">
@@ -7055,7 +7055,7 @@
         </is>
       </c>
       <c r="F231" t="n">
-        <v>19499131.4418066</v>
+        <v>19334489.91955388</v>
       </c>
     </row>
     <row r="232">
@@ -7084,7 +7084,7 @@
         </is>
       </c>
       <c r="F232" t="n">
-        <v>754066.4315418224</v>
+        <v>747699.4481949365</v>
       </c>
     </row>
     <row r="233">
@@ -7112,7 +7112,7 @@
         </is>
       </c>
       <c r="F233" t="n">
-        <v>27671474.44333316</v>
+        <v>27437829.48899639</v>
       </c>
     </row>
     <row r="234">
@@ -7141,7 +7141,7 @@
         </is>
       </c>
       <c r="F234" t="n">
-        <v>19499131.4418066</v>
+        <v>19334489.91955388</v>
       </c>
     </row>
     <row r="235">
@@ -7170,7 +7170,7 @@
         </is>
       </c>
       <c r="F235" t="n">
-        <v>754066.4315418224</v>
+        <v>747699.4481949365</v>
       </c>
     </row>
     <row r="236">
@@ -7198,7 +7198,7 @@
         </is>
       </c>
       <c r="F236" t="n">
-        <v>27671474.44333316</v>
+        <v>27437829.48899639</v>
       </c>
     </row>
     <row r="237">
@@ -7227,7 +7227,7 @@
         </is>
       </c>
       <c r="F237" t="n">
-        <v>19499131.4418066</v>
+        <v>19334489.91955388</v>
       </c>
     </row>
     <row r="238">
@@ -7256,7 +7256,7 @@
         </is>
       </c>
       <c r="F238" t="n">
-        <v>754066.4315418224</v>
+        <v>747699.4481949365</v>
       </c>
     </row>
     <row r="239">
@@ -7284,7 +7284,7 @@
         </is>
       </c>
       <c r="F239" t="n">
-        <v>27671474.44333316</v>
+        <v>27437829.48899639</v>
       </c>
     </row>
     <row r="240">
@@ -7313,7 +7313,7 @@
         </is>
       </c>
       <c r="F240" t="n">
-        <v>19499131.4418066</v>
+        <v>19334489.91955388</v>
       </c>
     </row>
     <row r="241">
@@ -7342,7 +7342,7 @@
         </is>
       </c>
       <c r="F241" t="n">
-        <v>754066.4315418224</v>
+        <v>747699.4481949365</v>
       </c>
     </row>
     <row r="242">
@@ -7370,7 +7370,7 @@
         </is>
       </c>
       <c r="F242" t="n">
-        <v>276714744.4333316</v>
+        <v>274378294.8899639</v>
       </c>
     </row>
     <row r="243">
@@ -7399,7 +7399,7 @@
         </is>
       </c>
       <c r="F243" t="n">
-        <v>194991314.418066</v>
+        <v>193344899.1955388</v>
       </c>
     </row>
     <row r="244">
@@ -7428,7 +7428,7 @@
         </is>
       </c>
       <c r="F244" t="n">
-        <v>7540664.315418224</v>
+        <v>7476994.481949365</v>
       </c>
     </row>
     <row r="245">
@@ -7456,7 +7456,7 @@
         </is>
       </c>
       <c r="F245" t="n">
-        <v>276714744.4333316</v>
+        <v>274378294.8899639</v>
       </c>
     </row>
     <row r="246">
@@ -7485,7 +7485,7 @@
         </is>
       </c>
       <c r="F246" t="n">
-        <v>194991314.418066</v>
+        <v>193344899.1955388</v>
       </c>
     </row>
     <row r="247">
@@ -7514,7 +7514,7 @@
         </is>
       </c>
       <c r="F247" t="n">
-        <v>7540664.315418224</v>
+        <v>7476994.481949365</v>
       </c>
     </row>
     <row r="248">
@@ -7542,7 +7542,7 @@
         </is>
       </c>
       <c r="F248" t="n">
-        <v>276714744.4333316</v>
+        <v>274378294.8899639</v>
       </c>
     </row>
     <row r="249">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="F249" t="n">
-        <v>194991314.418066</v>
+        <v>193344899.1955388</v>
       </c>
     </row>
     <row r="250">
@@ -7600,7 +7600,7 @@
         </is>
       </c>
       <c r="F250" t="n">
-        <v>7540664.315418224</v>
+        <v>7476994.481949365</v>
       </c>
     </row>
     <row r="251">
@@ -7628,7 +7628,7 @@
         </is>
       </c>
       <c r="F251" t="n">
-        <v>276714744.4333316</v>
+        <v>274378294.8899639</v>
       </c>
     </row>
     <row r="252">
@@ -7657,7 +7657,7 @@
         </is>
       </c>
       <c r="F252" t="n">
-        <v>194991314.418066</v>
+        <v>193344899.1955388</v>
       </c>
     </row>
     <row r="253">
@@ -7686,7 +7686,7 @@
         </is>
       </c>
       <c r="F253" t="n">
-        <v>7540664.315418224</v>
+        <v>7476994.481949365</v>
       </c>
     </row>
     <row r="254">
@@ -7714,7 +7714,7 @@
         </is>
       </c>
       <c r="F254" t="n">
-        <v>276714744.4333316</v>
+        <v>274378294.8899639</v>
       </c>
     </row>
     <row r="255">
@@ -7743,7 +7743,7 @@
         </is>
       </c>
       <c r="F255" t="n">
-        <v>194991314.418066</v>
+        <v>193344899.1955388</v>
       </c>
     </row>
     <row r="256">
@@ -7772,7 +7772,7 @@
         </is>
       </c>
       <c r="F256" t="n">
-        <v>7540664.315418224</v>
+        <v>7476994.481949365</v>
       </c>
     </row>
     <row r="257">
@@ -7800,7 +7800,7 @@
         </is>
       </c>
       <c r="F257" t="n">
-        <v>276714744.4333316</v>
+        <v>274378294.8899639</v>
       </c>
     </row>
     <row r="258">
@@ -7829,7 +7829,7 @@
         </is>
       </c>
       <c r="F258" t="n">
-        <v>194991314.418066</v>
+        <v>193344899.1955388</v>
       </c>
     </row>
     <row r="259">
@@ -7858,7 +7858,7 @@
         </is>
       </c>
       <c r="F259" t="n">
-        <v>7540664.315418224</v>
+        <v>7476994.481949365</v>
       </c>
     </row>
     <row r="260">
@@ -7886,7 +7886,7 @@
         </is>
       </c>
       <c r="F260" t="n">
-        <v>276714744.4333316</v>
+        <v>274378294.8899639</v>
       </c>
     </row>
     <row r="261">
@@ -7915,7 +7915,7 @@
         </is>
       </c>
       <c r="F261" t="n">
-        <v>194991314.418066</v>
+        <v>193344899.1955388</v>
       </c>
     </row>
     <row r="262">
@@ -7944,7 +7944,7 @@
         </is>
       </c>
       <c r="F262" t="n">
-        <v>7540664.315418224</v>
+        <v>7476994.481949365</v>
       </c>
     </row>
     <row r="263">
@@ -7972,7 +7972,7 @@
         </is>
       </c>
       <c r="F263" t="n">
-        <v>276714744.4333316</v>
+        <v>274378294.8899639</v>
       </c>
     </row>
     <row r="264">
@@ -8001,7 +8001,7 @@
         </is>
       </c>
       <c r="F264" t="n">
-        <v>194991314.418066</v>
+        <v>193344899.1955388</v>
       </c>
     </row>
     <row r="265">
@@ -8030,7 +8030,7 @@
         </is>
       </c>
       <c r="F265" t="n">
-        <v>7540664.315418224</v>
+        <v>7476994.481949365</v>
       </c>
     </row>
     <row r="266">
@@ -8058,7 +8058,7 @@
         </is>
       </c>
       <c r="F266" t="n">
-        <v>276714744.4333316</v>
+        <v>274378294.8899639</v>
       </c>
     </row>
     <row r="267">
@@ -8087,7 +8087,7 @@
         </is>
       </c>
       <c r="F267" t="n">
-        <v>194991314.418066</v>
+        <v>193344899.1955388</v>
       </c>
     </row>
     <row r="268">
@@ -8116,7 +8116,7 @@
         </is>
       </c>
       <c r="F268" t="n">
-        <v>7540664.315418224</v>
+        <v>7476994.481949365</v>
       </c>
     </row>
     <row r="269">
@@ -8144,7 +8144,7 @@
         </is>
       </c>
       <c r="F269" t="n">
-        <v>276714744.4333316</v>
+        <v>274378294.8899639</v>
       </c>
     </row>
     <row r="270">
@@ -8173,7 +8173,7 @@
         </is>
       </c>
       <c r="F270" t="n">
-        <v>194991314.418066</v>
+        <v>193344899.1955388</v>
       </c>
     </row>
     <row r="271">
@@ -8202,7 +8202,7 @@
         </is>
       </c>
       <c r="F271" t="n">
-        <v>7540664.315418224</v>
+        <v>7476994.481949365</v>
       </c>
     </row>
     <row r="272">
@@ -8230,7 +8230,7 @@
         </is>
       </c>
       <c r="F272" t="n">
-        <v>276714744.4333316</v>
+        <v>274378294.8899639</v>
       </c>
     </row>
     <row r="273">
@@ -8259,7 +8259,7 @@
         </is>
       </c>
       <c r="F273" t="n">
-        <v>194991314.418066</v>
+        <v>193344899.1955388</v>
       </c>
     </row>
     <row r="274">
@@ -8288,7 +8288,7 @@
         </is>
       </c>
       <c r="F274" t="n">
-        <v>7540664.315418224</v>
+        <v>7476994.481949365</v>
       </c>
     </row>
     <row r="275">
@@ -8316,7 +8316,7 @@
         </is>
       </c>
       <c r="F275" t="n">
-        <v>276714744.4333316</v>
+        <v>274378294.8899639</v>
       </c>
     </row>
     <row r="276">
@@ -8345,7 +8345,7 @@
         </is>
       </c>
       <c r="F276" t="n">
-        <v>194991314.418066</v>
+        <v>193344899.1955388</v>
       </c>
     </row>
     <row r="277">
@@ -8374,7 +8374,7 @@
         </is>
       </c>
       <c r="F277" t="n">
-        <v>7540664.315418224</v>
+        <v>7476994.481949365</v>
       </c>
     </row>
     <row r="278">
@@ -8402,7 +8402,7 @@
         </is>
       </c>
       <c r="F278" t="n">
-        <v>276714744.4333316</v>
+        <v>274378294.8899639</v>
       </c>
     </row>
     <row r="279">
@@ -8431,7 +8431,7 @@
         </is>
       </c>
       <c r="F279" t="n">
-        <v>194991314.418066</v>
+        <v>193344899.1955388</v>
       </c>
     </row>
     <row r="280">
@@ -8460,7 +8460,7 @@
         </is>
       </c>
       <c r="F280" t="n">
-        <v>7540664.315418224</v>
+        <v>7476994.481949365</v>
       </c>
     </row>
     <row r="281">
@@ -8488,7 +8488,7 @@
         </is>
       </c>
       <c r="F281" t="n">
-        <v>276714744.4333316</v>
+        <v>274378294.8899639</v>
       </c>
     </row>
     <row r="282">
@@ -8517,7 +8517,7 @@
         </is>
       </c>
       <c r="F282" t="n">
-        <v>194991314.418066</v>
+        <v>193344899.1955388</v>
       </c>
     </row>
     <row r="283">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="F283" t="n">
-        <v>7540664.315418224</v>
+        <v>7476994.481949365</v>
       </c>
     </row>
     <row r="284">
@@ -8574,7 +8574,7 @@
         </is>
       </c>
       <c r="F284" t="n">
-        <v>276714744.4333316</v>
+        <v>274378294.8899639</v>
       </c>
     </row>
     <row r="285">
@@ -8603,7 +8603,7 @@
         </is>
       </c>
       <c r="F285" t="n">
-        <v>194991314.418066</v>
+        <v>193344899.1955388</v>
       </c>
     </row>
     <row r="286">
@@ -8632,7 +8632,7 @@
         </is>
       </c>
       <c r="F286" t="n">
-        <v>7540664.315418224</v>
+        <v>7476994.481949365</v>
       </c>
     </row>
     <row r="287">
@@ -8660,7 +8660,7 @@
         </is>
       </c>
       <c r="F287" t="n">
-        <v>276714744.4333316</v>
+        <v>274378294.8899639</v>
       </c>
     </row>
     <row r="288">
@@ -8689,7 +8689,7 @@
         </is>
       </c>
       <c r="F288" t="n">
-        <v>194991314.418066</v>
+        <v>193344899.1955388</v>
       </c>
     </row>
     <row r="289">
@@ -8718,7 +8718,7 @@
         </is>
       </c>
       <c r="F289" t="n">
-        <v>7540664.315418224</v>
+        <v>7476994.481949365</v>
       </c>
     </row>
     <row r="290">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="F290" t="n">
-        <v>276714744.4333316</v>
+        <v>274378294.8899639</v>
       </c>
     </row>
     <row r="291">
@@ -8775,7 +8775,7 @@
         </is>
       </c>
       <c r="F291" t="n">
-        <v>194991314.418066</v>
+        <v>193344899.1955388</v>
       </c>
     </row>
     <row r="292">
@@ -8804,7 +8804,7 @@
         </is>
       </c>
       <c r="F292" t="n">
-        <v>7540664.315418224</v>
+        <v>7476994.481949365</v>
       </c>
     </row>
     <row r="293">
@@ -8832,7 +8832,7 @@
         </is>
       </c>
       <c r="F293" t="n">
-        <v>276714744.4333316</v>
+        <v>274378294.8899639</v>
       </c>
     </row>
     <row r="294">
@@ -8861,7 +8861,7 @@
         </is>
       </c>
       <c r="F294" t="n">
-        <v>194991314.418066</v>
+        <v>193344899.1955388</v>
       </c>
     </row>
     <row r="295">
@@ -8890,7 +8890,7 @@
         </is>
       </c>
       <c r="F295" t="n">
-        <v>7540664.315418224</v>
+        <v>7476994.481949365</v>
       </c>
     </row>
     <row r="296">
@@ -8918,7 +8918,7 @@
         </is>
       </c>
       <c r="F296" t="n">
-        <v>276714744.4333316</v>
+        <v>274378294.8899639</v>
       </c>
     </row>
     <row r="297">
@@ -8947,7 +8947,7 @@
         </is>
       </c>
       <c r="F297" t="n">
-        <v>194991314.418066</v>
+        <v>193344899.1955388</v>
       </c>
     </row>
     <row r="298">
@@ -8976,7 +8976,7 @@
         </is>
       </c>
       <c r="F298" t="n">
-        <v>7540664.315418224</v>
+        <v>7476994.481949365</v>
       </c>
     </row>
     <row r="299">
@@ -9004,7 +9004,7 @@
         </is>
       </c>
       <c r="F299" t="n">
-        <v>276714744.4333316</v>
+        <v>274378294.8899639</v>
       </c>
     </row>
     <row r="300">
@@ -9033,7 +9033,7 @@
         </is>
       </c>
       <c r="F300" t="n">
-        <v>194991314.418066</v>
+        <v>193344899.1955388</v>
       </c>
     </row>
     <row r="301">
@@ -9062,7 +9062,7 @@
         </is>
       </c>
       <c r="F301" t="n">
-        <v>7540664.315418224</v>
+        <v>7476994.481949365</v>
       </c>
     </row>
     <row r="302">
@@ -9088,7 +9088,7 @@
         </is>
       </c>
       <c r="F302" t="n">
-        <v>2767.147444333316</v>
+        <v>2743.782948899639</v>
       </c>
     </row>
     <row r="303">
@@ -9115,7 +9115,7 @@
         </is>
       </c>
       <c r="F303" t="n">
-        <v>1949.91314418066</v>
+        <v>1933.448991955388</v>
       </c>
     </row>
     <row r="304">
@@ -9142,7 +9142,7 @@
         </is>
       </c>
       <c r="F304" t="n">
-        <v>75.40664315418225</v>
+        <v>74.76994481949365</v>
       </c>
     </row>
     <row r="305">
@@ -9168,7 +9168,7 @@
         </is>
       </c>
       <c r="F305" t="n">
-        <v>2767.147444333316</v>
+        <v>2743.782948899639</v>
       </c>
     </row>
     <row r="306">
@@ -9195,7 +9195,7 @@
         </is>
       </c>
       <c r="F306" t="n">
-        <v>1949.91314418066</v>
+        <v>1933.448991955388</v>
       </c>
     </row>
     <row r="307">
@@ -9222,7 +9222,7 @@
         </is>
       </c>
       <c r="F307" t="n">
-        <v>75.40664315418225</v>
+        <v>74.76994481949365</v>
       </c>
     </row>
     <row r="308">
@@ -9248,7 +9248,7 @@
         </is>
       </c>
       <c r="F308" t="n">
-        <v>2767.147444333316</v>
+        <v>2743.782948899639</v>
       </c>
     </row>
     <row r="309">
@@ -9275,7 +9275,7 @@
         </is>
       </c>
       <c r="F309" t="n">
-        <v>1949.91314418066</v>
+        <v>1933.448991955388</v>
       </c>
     </row>
     <row r="310">
@@ -9302,7 +9302,7 @@
         </is>
       </c>
       <c r="F310" t="n">
-        <v>75.40664315418225</v>
+        <v>74.76994481949365</v>
       </c>
     </row>
     <row r="311">
@@ -9328,7 +9328,7 @@
         </is>
       </c>
       <c r="F311" t="n">
-        <v>2767.147444333316</v>
+        <v>2743.782948899639</v>
       </c>
     </row>
     <row r="312">
@@ -9355,7 +9355,7 @@
         </is>
       </c>
       <c r="F312" t="n">
-        <v>1949.91314418066</v>
+        <v>1933.448991955388</v>
       </c>
     </row>
     <row r="313">
@@ -9382,7 +9382,7 @@
         </is>
       </c>
       <c r="F313" t="n">
-        <v>75.40664315418225</v>
+        <v>74.76994481949365</v>
       </c>
     </row>
     <row r="314">
@@ -9408,7 +9408,7 @@
         </is>
       </c>
       <c r="F314" t="n">
-        <v>2767.147444333316</v>
+        <v>2743.782948899639</v>
       </c>
     </row>
     <row r="315">
@@ -9435,7 +9435,7 @@
         </is>
       </c>
       <c r="F315" t="n">
-        <v>1949.91314418066</v>
+        <v>1933.448991955388</v>
       </c>
     </row>
     <row r="316">
@@ -9462,7 +9462,7 @@
         </is>
       </c>
       <c r="F316" t="n">
-        <v>75.40664315418225</v>
+        <v>74.76994481949365</v>
       </c>
     </row>
     <row r="317">
@@ -9488,7 +9488,7 @@
         </is>
       </c>
       <c r="F317" t="n">
-        <v>2767.147444333316</v>
+        <v>2743.782948899639</v>
       </c>
     </row>
     <row r="318">
@@ -9515,7 +9515,7 @@
         </is>
       </c>
       <c r="F318" t="n">
-        <v>1949.91314418066</v>
+        <v>1933.448991955388</v>
       </c>
     </row>
     <row r="319">
@@ -9542,7 +9542,7 @@
         </is>
       </c>
       <c r="F319" t="n">
-        <v>75.40664315418225</v>
+        <v>74.76994481949365</v>
       </c>
     </row>
     <row r="320">
@@ -9568,7 +9568,7 @@
         </is>
       </c>
       <c r="F320" t="n">
-        <v>2767.147444333316</v>
+        <v>2743.782948899639</v>
       </c>
     </row>
     <row r="321">
@@ -9595,7 +9595,7 @@
         </is>
       </c>
       <c r="F321" t="n">
-        <v>1949.91314418066</v>
+        <v>1933.448991955388</v>
       </c>
     </row>
     <row r="322">
@@ -9622,7 +9622,7 @@
         </is>
       </c>
       <c r="F322" t="n">
-        <v>75.40664315418225</v>
+        <v>74.76994481949365</v>
       </c>
     </row>
     <row r="323">
@@ -9648,7 +9648,7 @@
         </is>
       </c>
       <c r="F323" t="n">
-        <v>2767.147444333316</v>
+        <v>2743.782948899639</v>
       </c>
     </row>
     <row r="324">
@@ -9675,7 +9675,7 @@
         </is>
       </c>
       <c r="F324" t="n">
-        <v>1949.91314418066</v>
+        <v>1933.448991955388</v>
       </c>
     </row>
     <row r="325">
@@ -9702,7 +9702,7 @@
         </is>
       </c>
       <c r="F325" t="n">
-        <v>75.40664315418225</v>
+        <v>74.76994481949365</v>
       </c>
     </row>
     <row r="326">
@@ -9728,7 +9728,7 @@
         </is>
       </c>
       <c r="F326" t="n">
-        <v>2767.147444333316</v>
+        <v>2743.782948899639</v>
       </c>
     </row>
     <row r="327">
@@ -9755,7 +9755,7 @@
         </is>
       </c>
       <c r="F327" t="n">
-        <v>1949.91314418066</v>
+        <v>1933.448991955388</v>
       </c>
     </row>
     <row r="328">
@@ -9782,7 +9782,7 @@
         </is>
       </c>
       <c r="F328" t="n">
-        <v>75.40664315418225</v>
+        <v>74.76994481949365</v>
       </c>
     </row>
     <row r="329">
@@ -9808,7 +9808,7 @@
         </is>
       </c>
       <c r="F329" t="n">
-        <v>2767.147444333316</v>
+        <v>2743.782948899639</v>
       </c>
     </row>
     <row r="330">
@@ -9835,7 +9835,7 @@
         </is>
       </c>
       <c r="F330" t="n">
-        <v>1949.91314418066</v>
+        <v>1933.448991955388</v>
       </c>
     </row>
     <row r="331">
@@ -9862,7 +9862,7 @@
         </is>
       </c>
       <c r="F331" t="n">
-        <v>75.40664315418225</v>
+        <v>74.76994481949365</v>
       </c>
     </row>
     <row r="332">
@@ -9888,7 +9888,7 @@
         </is>
       </c>
       <c r="F332" t="n">
-        <v>2767.147444333316</v>
+        <v>2743.782948899639</v>
       </c>
     </row>
     <row r="333">
@@ -9915,7 +9915,7 @@
         </is>
       </c>
       <c r="F333" t="n">
-        <v>1949.91314418066</v>
+        <v>1933.448991955388</v>
       </c>
     </row>
     <row r="334">
@@ -9942,7 +9942,7 @@
         </is>
       </c>
       <c r="F334" t="n">
-        <v>75.40664315418225</v>
+        <v>74.76994481949365</v>
       </c>
     </row>
     <row r="335">
@@ -9968,7 +9968,7 @@
         </is>
       </c>
       <c r="F335" t="n">
-        <v>2767.147444333316</v>
+        <v>2743.782948899639</v>
       </c>
     </row>
     <row r="336">
@@ -9995,7 +9995,7 @@
         </is>
       </c>
       <c r="F336" t="n">
-        <v>1949.91314418066</v>
+        <v>1933.448991955388</v>
       </c>
     </row>
     <row r="337">
@@ -10022,7 +10022,7 @@
         </is>
       </c>
       <c r="F337" t="n">
-        <v>75.40664315418225</v>
+        <v>74.76994481949365</v>
       </c>
     </row>
     <row r="338">
@@ -10048,7 +10048,7 @@
         </is>
       </c>
       <c r="F338" t="n">
-        <v>2767.147444333316</v>
+        <v>2743.782948899639</v>
       </c>
     </row>
     <row r="339">
@@ -10075,7 +10075,7 @@
         </is>
       </c>
       <c r="F339" t="n">
-        <v>1949.91314418066</v>
+        <v>1933.448991955388</v>
       </c>
     </row>
     <row r="340">
@@ -10102,7 +10102,7 @@
         </is>
       </c>
       <c r="F340" t="n">
-        <v>75.40664315418225</v>
+        <v>74.76994481949365</v>
       </c>
     </row>
     <row r="341">
@@ -10128,7 +10128,7 @@
         </is>
       </c>
       <c r="F341" t="n">
-        <v>2767.147444333316</v>
+        <v>2743.782948899639</v>
       </c>
     </row>
     <row r="342">
@@ -10155,7 +10155,7 @@
         </is>
       </c>
       <c r="F342" t="n">
-        <v>1949.91314418066</v>
+        <v>1933.448991955388</v>
       </c>
     </row>
     <row r="343">
@@ -10182,7 +10182,7 @@
         </is>
       </c>
       <c r="F343" t="n">
-        <v>75.40664315418225</v>
+        <v>74.76994481949365</v>
       </c>
     </row>
     <row r="344">
@@ -10208,7 +10208,7 @@
         </is>
       </c>
       <c r="F344" t="n">
-        <v>2767.147444333316</v>
+        <v>2743.782948899639</v>
       </c>
     </row>
     <row r="345">
@@ -10235,7 +10235,7 @@
         </is>
       </c>
       <c r="F345" t="n">
-        <v>1949.91314418066</v>
+        <v>1933.448991955388</v>
       </c>
     </row>
     <row r="346">
@@ -10262,7 +10262,7 @@
         </is>
       </c>
       <c r="F346" t="n">
-        <v>75.40664315418225</v>
+        <v>74.76994481949365</v>
       </c>
     </row>
     <row r="347">
@@ -10288,7 +10288,7 @@
         </is>
       </c>
       <c r="F347" t="n">
-        <v>2767.147444333316</v>
+        <v>2743.782948899639</v>
       </c>
     </row>
     <row r="348">
@@ -10315,7 +10315,7 @@
         </is>
       </c>
       <c r="F348" t="n">
-        <v>1949.91314418066</v>
+        <v>1933.448991955388</v>
       </c>
     </row>
     <row r="349">
@@ -10342,7 +10342,7 @@
         </is>
       </c>
       <c r="F349" t="n">
-        <v>75.40664315418225</v>
+        <v>74.76994481949365</v>
       </c>
     </row>
     <row r="350">
@@ -10368,7 +10368,7 @@
         </is>
       </c>
       <c r="F350" t="n">
-        <v>2767.147444333316</v>
+        <v>2743.782948899639</v>
       </c>
     </row>
     <row r="351">
@@ -10395,7 +10395,7 @@
         </is>
       </c>
       <c r="F351" t="n">
-        <v>1949.91314418066</v>
+        <v>1933.448991955388</v>
       </c>
     </row>
     <row r="352">
@@ -10422,7 +10422,7 @@
         </is>
       </c>
       <c r="F352" t="n">
-        <v>75.40664315418225</v>
+        <v>74.76994481949365</v>
       </c>
     </row>
     <row r="353">
@@ -10448,7 +10448,7 @@
         </is>
       </c>
       <c r="F353" t="n">
-        <v>2767.147444333316</v>
+        <v>2743.782948899639</v>
       </c>
     </row>
     <row r="354">
@@ -10475,7 +10475,7 @@
         </is>
       </c>
       <c r="F354" t="n">
-        <v>1949.91314418066</v>
+        <v>1933.448991955388</v>
       </c>
     </row>
     <row r="355">
@@ -10502,7 +10502,7 @@
         </is>
       </c>
       <c r="F355" t="n">
-        <v>75.40664315418225</v>
+        <v>74.76994481949365</v>
       </c>
     </row>
     <row r="356">
@@ -10528,7 +10528,7 @@
         </is>
       </c>
       <c r="F356" t="n">
-        <v>2767.147444333316</v>
+        <v>2743.782948899639</v>
       </c>
     </row>
     <row r="357">
@@ -10555,7 +10555,7 @@
         </is>
       </c>
       <c r="F357" t="n">
-        <v>1949.91314418066</v>
+        <v>1933.448991955388</v>
       </c>
     </row>
     <row r="358">
@@ -10582,7 +10582,7 @@
         </is>
       </c>
       <c r="F358" t="n">
-        <v>75.40664315418225</v>
+        <v>74.76994481949365</v>
       </c>
     </row>
     <row r="359">
@@ -10608,7 +10608,7 @@
         </is>
       </c>
       <c r="F359" t="n">
-        <v>2767.147444333316</v>
+        <v>2743.782948899639</v>
       </c>
     </row>
     <row r="360">
@@ -10635,7 +10635,7 @@
         </is>
       </c>
       <c r="F360" t="n">
-        <v>1949.91314418066</v>
+        <v>1933.448991955388</v>
       </c>
     </row>
     <row r="361">
@@ -10662,7 +10662,7 @@
         </is>
       </c>
       <c r="F361" t="n">
-        <v>75.40664315418225</v>
+        <v>74.76994481949365</v>
       </c>
     </row>
     <row r="362">
@@ -10688,7 +10688,7 @@
         </is>
       </c>
       <c r="F362" t="n">
-        <v>27671.47444333316</v>
+        <v>27437.82948899639</v>
       </c>
     </row>
     <row r="363">
@@ -10715,7 +10715,7 @@
         </is>
       </c>
       <c r="F363" t="n">
-        <v>19499.1314418066</v>
+        <v>19334.48991955388</v>
       </c>
     </row>
     <row r="364">
@@ -10742,7 +10742,7 @@
         </is>
       </c>
       <c r="F364" t="n">
-        <v>754.0664315418225</v>
+        <v>747.6994481949365</v>
       </c>
     </row>
     <row r="365">
@@ -10768,7 +10768,7 @@
         </is>
       </c>
       <c r="F365" t="n">
-        <v>27671.47444333316</v>
+        <v>27437.82948899639</v>
       </c>
     </row>
     <row r="366">
@@ -10795,7 +10795,7 @@
         </is>
       </c>
       <c r="F366" t="n">
-        <v>19499.1314418066</v>
+        <v>19334.48991955388</v>
       </c>
     </row>
     <row r="367">
@@ -10822,7 +10822,7 @@
         </is>
       </c>
       <c r="F367" t="n">
-        <v>754.0664315418225</v>
+        <v>747.6994481949365</v>
       </c>
     </row>
     <row r="368">
@@ -10848,7 +10848,7 @@
         </is>
       </c>
       <c r="F368" t="n">
-        <v>27671.47444333316</v>
+        <v>27437.82948899639</v>
       </c>
     </row>
     <row r="369">
@@ -10875,7 +10875,7 @@
         </is>
       </c>
       <c r="F369" t="n">
-        <v>19499.1314418066</v>
+        <v>19334.48991955388</v>
       </c>
     </row>
     <row r="370">
@@ -10902,7 +10902,7 @@
         </is>
       </c>
       <c r="F370" t="n">
-        <v>754.0664315418225</v>
+        <v>747.6994481949365</v>
       </c>
     </row>
     <row r="371">
@@ -10928,7 +10928,7 @@
         </is>
       </c>
       <c r="F371" t="n">
-        <v>27671.47444333316</v>
+        <v>27437.82948899639</v>
       </c>
     </row>
     <row r="372">
@@ -10955,7 +10955,7 @@
         </is>
       </c>
       <c r="F372" t="n">
-        <v>19499.1314418066</v>
+        <v>19334.48991955388</v>
       </c>
     </row>
     <row r="373">
@@ -10982,7 +10982,7 @@
         </is>
       </c>
       <c r="F373" t="n">
-        <v>754.0664315418225</v>
+        <v>747.6994481949365</v>
       </c>
     </row>
     <row r="374">
@@ -11008,7 +11008,7 @@
         </is>
       </c>
       <c r="F374" t="n">
-        <v>27671.47444333316</v>
+        <v>27437.82948899639</v>
       </c>
     </row>
     <row r="375">
@@ -11035,7 +11035,7 @@
         </is>
       </c>
       <c r="F375" t="n">
-        <v>19499.1314418066</v>
+        <v>19334.48991955388</v>
       </c>
     </row>
     <row r="376">
@@ -11062,7 +11062,7 @@
         </is>
       </c>
       <c r="F376" t="n">
-        <v>754.0664315418225</v>
+        <v>747.6994481949365</v>
       </c>
     </row>
     <row r="377">
@@ -11088,7 +11088,7 @@
         </is>
       </c>
       <c r="F377" t="n">
-        <v>27671.47444333316</v>
+        <v>27437.82948899639</v>
       </c>
     </row>
     <row r="378">
@@ -11115,7 +11115,7 @@
         </is>
       </c>
       <c r="F378" t="n">
-        <v>19499.1314418066</v>
+        <v>19334.48991955388</v>
       </c>
     </row>
     <row r="379">
@@ -11142,7 +11142,7 @@
         </is>
       </c>
       <c r="F379" t="n">
-        <v>754.0664315418225</v>
+        <v>747.6994481949365</v>
       </c>
     </row>
     <row r="380">
@@ -11168,7 +11168,7 @@
         </is>
       </c>
       <c r="F380" t="n">
-        <v>27671.47444333316</v>
+        <v>27437.82948899639</v>
       </c>
     </row>
     <row r="381">
@@ -11195,7 +11195,7 @@
         </is>
       </c>
       <c r="F381" t="n">
-        <v>19499.1314418066</v>
+        <v>19334.48991955388</v>
       </c>
     </row>
     <row r="382">
@@ -11222,7 +11222,7 @@
         </is>
       </c>
       <c r="F382" t="n">
-        <v>754.0664315418225</v>
+        <v>747.6994481949365</v>
       </c>
     </row>
     <row r="383">
@@ -11248,7 +11248,7 @@
         </is>
       </c>
       <c r="F383" t="n">
-        <v>27671.47444333316</v>
+        <v>27437.82948899639</v>
       </c>
     </row>
     <row r="384">
@@ -11275,7 +11275,7 @@
         </is>
       </c>
       <c r="F384" t="n">
-        <v>19499.1314418066</v>
+        <v>19334.48991955388</v>
       </c>
     </row>
     <row r="385">
@@ -11302,7 +11302,7 @@
         </is>
       </c>
       <c r="F385" t="n">
-        <v>754.0664315418225</v>
+        <v>747.6994481949365</v>
       </c>
     </row>
     <row r="386">
@@ -11328,7 +11328,7 @@
         </is>
       </c>
       <c r="F386" t="n">
-        <v>27671.47444333316</v>
+        <v>27437.82948899639</v>
       </c>
     </row>
     <row r="387">
@@ -11355,7 +11355,7 @@
         </is>
       </c>
       <c r="F387" t="n">
-        <v>19499.1314418066</v>
+        <v>19334.48991955388</v>
       </c>
     </row>
     <row r="388">
@@ -11382,7 +11382,7 @@
         </is>
       </c>
       <c r="F388" t="n">
-        <v>754.0664315418225</v>
+        <v>747.6994481949365</v>
       </c>
     </row>
     <row r="389">
@@ -11408,7 +11408,7 @@
         </is>
       </c>
       <c r="F389" t="n">
-        <v>27671.47444333316</v>
+        <v>27437.82948899639</v>
       </c>
     </row>
     <row r="390">
@@ -11435,7 +11435,7 @@
         </is>
       </c>
       <c r="F390" t="n">
-        <v>19499.1314418066</v>
+        <v>19334.48991955388</v>
       </c>
     </row>
     <row r="391">
@@ -11462,7 +11462,7 @@
         </is>
       </c>
       <c r="F391" t="n">
-        <v>754.0664315418225</v>
+        <v>747.6994481949365</v>
       </c>
     </row>
     <row r="392">
@@ -11488,7 +11488,7 @@
         </is>
       </c>
       <c r="F392" t="n">
-        <v>27671.47444333316</v>
+        <v>27437.82948899639</v>
       </c>
     </row>
     <row r="393">
@@ -11515,7 +11515,7 @@
         </is>
       </c>
       <c r="F393" t="n">
-        <v>19499.1314418066</v>
+        <v>19334.48991955388</v>
       </c>
     </row>
     <row r="394">
@@ -11542,7 +11542,7 @@
         </is>
       </c>
       <c r="F394" t="n">
-        <v>754.0664315418225</v>
+        <v>747.6994481949365</v>
       </c>
     </row>
     <row r="395">
@@ -11568,7 +11568,7 @@
         </is>
       </c>
       <c r="F395" t="n">
-        <v>27671.47444333316</v>
+        <v>27437.82948899639</v>
       </c>
     </row>
     <row r="396">
@@ -11595,7 +11595,7 @@
         </is>
       </c>
       <c r="F396" t="n">
-        <v>19499.1314418066</v>
+        <v>19334.48991955388</v>
       </c>
     </row>
     <row r="397">
@@ -11622,7 +11622,7 @@
         </is>
       </c>
       <c r="F397" t="n">
-        <v>754.0664315418225</v>
+        <v>747.6994481949365</v>
       </c>
     </row>
     <row r="398">
@@ -11648,7 +11648,7 @@
         </is>
       </c>
       <c r="F398" t="n">
-        <v>27671.47444333316</v>
+        <v>27437.82948899639</v>
       </c>
     </row>
     <row r="399">
@@ -11675,7 +11675,7 @@
         </is>
       </c>
       <c r="F399" t="n">
-        <v>19499.1314418066</v>
+        <v>19334.48991955388</v>
       </c>
     </row>
     <row r="400">
@@ -11702,7 +11702,7 @@
         </is>
       </c>
       <c r="F400" t="n">
-        <v>754.0664315418225</v>
+        <v>747.6994481949365</v>
       </c>
     </row>
     <row r="401">
@@ -11728,7 +11728,7 @@
         </is>
       </c>
       <c r="F401" t="n">
-        <v>27671.47444333316</v>
+        <v>27437.82948899639</v>
       </c>
     </row>
     <row r="402">
@@ -11755,7 +11755,7 @@
         </is>
       </c>
       <c r="F402" t="n">
-        <v>19499.1314418066</v>
+        <v>19334.48991955388</v>
       </c>
     </row>
     <row r="403">
@@ -11782,7 +11782,7 @@
         </is>
       </c>
       <c r="F403" t="n">
-        <v>754.0664315418225</v>
+        <v>747.6994481949365</v>
       </c>
     </row>
     <row r="404">
@@ -11808,7 +11808,7 @@
         </is>
       </c>
       <c r="F404" t="n">
-        <v>27671.47444333316</v>
+        <v>27437.82948899639</v>
       </c>
     </row>
     <row r="405">
@@ -11835,7 +11835,7 @@
         </is>
       </c>
       <c r="F405" t="n">
-        <v>19499.1314418066</v>
+        <v>19334.48991955388</v>
       </c>
     </row>
     <row r="406">
@@ -11862,7 +11862,7 @@
         </is>
       </c>
       <c r="F406" t="n">
-        <v>754.0664315418225</v>
+        <v>747.6994481949365</v>
       </c>
     </row>
     <row r="407">
@@ -11888,7 +11888,7 @@
         </is>
       </c>
       <c r="F407" t="n">
-        <v>27671.47444333316</v>
+        <v>27437.82948899639</v>
       </c>
     </row>
     <row r="408">
@@ -11915,7 +11915,7 @@
         </is>
       </c>
       <c r="F408" t="n">
-        <v>19499.1314418066</v>
+        <v>19334.48991955388</v>
       </c>
     </row>
     <row r="409">
@@ -11942,7 +11942,7 @@
         </is>
       </c>
       <c r="F409" t="n">
-        <v>754.0664315418225</v>
+        <v>747.6994481949365</v>
       </c>
     </row>
     <row r="410">
@@ -11968,7 +11968,7 @@
         </is>
       </c>
       <c r="F410" t="n">
-        <v>27671.47444333316</v>
+        <v>27437.82948899639</v>
       </c>
     </row>
     <row r="411">
@@ -11995,7 +11995,7 @@
         </is>
       </c>
       <c r="F411" t="n">
-        <v>19499.1314418066</v>
+        <v>19334.48991955388</v>
       </c>
     </row>
     <row r="412">
@@ -12022,7 +12022,7 @@
         </is>
       </c>
       <c r="F412" t="n">
-        <v>754.0664315418225</v>
+        <v>747.6994481949365</v>
       </c>
     </row>
     <row r="413">
@@ -12048,7 +12048,7 @@
         </is>
       </c>
       <c r="F413" t="n">
-        <v>27671.47444333316</v>
+        <v>27437.82948899639</v>
       </c>
     </row>
     <row r="414">
@@ -12075,7 +12075,7 @@
         </is>
       </c>
       <c r="F414" t="n">
-        <v>19499.1314418066</v>
+        <v>19334.48991955388</v>
       </c>
     </row>
     <row r="415">
@@ -12102,7 +12102,7 @@
         </is>
       </c>
       <c r="F415" t="n">
-        <v>754.0664315418225</v>
+        <v>747.6994481949365</v>
       </c>
     </row>
     <row r="416">
@@ -12128,7 +12128,7 @@
         </is>
       </c>
       <c r="F416" t="n">
-        <v>27671.47444333316</v>
+        <v>27437.82948899639</v>
       </c>
     </row>
     <row r="417">
@@ -12155,7 +12155,7 @@
         </is>
       </c>
       <c r="F417" t="n">
-        <v>19499.1314418066</v>
+        <v>19334.48991955388</v>
       </c>
     </row>
     <row r="418">
@@ -12182,7 +12182,7 @@
         </is>
       </c>
       <c r="F418" t="n">
-        <v>754.0664315418225</v>
+        <v>747.6994481949365</v>
       </c>
     </row>
     <row r="419">
@@ -12208,7 +12208,7 @@
         </is>
       </c>
       <c r="F419" t="n">
-        <v>27671.47444333316</v>
+        <v>27437.82948899639</v>
       </c>
     </row>
     <row r="420">
@@ -12235,7 +12235,7 @@
         </is>
       </c>
       <c r="F420" t="n">
-        <v>19499.1314418066</v>
+        <v>19334.48991955388</v>
       </c>
     </row>
     <row r="421">
@@ -12262,7 +12262,7 @@
         </is>
       </c>
       <c r="F421" t="n">
-        <v>754.0664315418225</v>
+        <v>747.6994481949365</v>
       </c>
     </row>
     <row r="422">
@@ -12288,7 +12288,7 @@
         </is>
       </c>
       <c r="F422" t="n">
-        <v>276714.7444333316</v>
+        <v>274378.2948899639</v>
       </c>
     </row>
     <row r="423">
@@ -12315,7 +12315,7 @@
         </is>
       </c>
       <c r="F423" t="n">
-        <v>194991.314418066</v>
+        <v>193344.8991955388</v>
       </c>
     </row>
     <row r="424">
@@ -12342,7 +12342,7 @@
         </is>
       </c>
       <c r="F424" t="n">
-        <v>7540.664315418224</v>
+        <v>7476.994481949365</v>
       </c>
     </row>
     <row r="425">
@@ -12368,7 +12368,7 @@
         </is>
       </c>
       <c r="F425" t="n">
-        <v>276714.7444333316</v>
+        <v>274378.2948899639</v>
       </c>
     </row>
     <row r="426">
@@ -12395,7 +12395,7 @@
         </is>
       </c>
       <c r="F426" t="n">
-        <v>194991.314418066</v>
+        <v>193344.8991955388</v>
       </c>
     </row>
     <row r="427">
@@ -12422,7 +12422,7 @@
         </is>
       </c>
       <c r="F427" t="n">
-        <v>7540.664315418224</v>
+        <v>7476.994481949365</v>
       </c>
     </row>
     <row r="428">
@@ -12448,7 +12448,7 @@
         </is>
       </c>
       <c r="F428" t="n">
-        <v>276714.7444333316</v>
+        <v>274378.2948899639</v>
       </c>
     </row>
     <row r="429">
@@ -12475,7 +12475,7 @@
         </is>
       </c>
       <c r="F429" t="n">
-        <v>194991.314418066</v>
+        <v>193344.8991955388</v>
       </c>
     </row>
     <row r="430">
@@ -12502,7 +12502,7 @@
         </is>
       </c>
       <c r="F430" t="n">
-        <v>7540.664315418224</v>
+        <v>7476.994481949365</v>
       </c>
     </row>
     <row r="431">
@@ -12528,7 +12528,7 @@
         </is>
       </c>
       <c r="F431" t="n">
-        <v>276714.7444333316</v>
+        <v>274378.2948899639</v>
       </c>
     </row>
     <row r="432">
@@ -12555,7 +12555,7 @@
         </is>
       </c>
       <c r="F432" t="n">
-        <v>194991.314418066</v>
+        <v>193344.8991955388</v>
       </c>
     </row>
     <row r="433">
@@ -12582,7 +12582,7 @@
         </is>
       </c>
       <c r="F433" t="n">
-        <v>7540.664315418224</v>
+        <v>7476.994481949365</v>
       </c>
     </row>
     <row r="434">
@@ -12608,7 +12608,7 @@
         </is>
       </c>
       <c r="F434" t="n">
-        <v>276714.7444333316</v>
+        <v>274378.2948899639</v>
       </c>
     </row>
     <row r="435">
@@ -12635,7 +12635,7 @@
         </is>
       </c>
       <c r="F435" t="n">
-        <v>194991.314418066</v>
+        <v>193344.8991955388</v>
       </c>
     </row>
     <row r="436">
@@ -12662,7 +12662,7 @@
         </is>
       </c>
       <c r="F436" t="n">
-        <v>7540.664315418224</v>
+        <v>7476.994481949365</v>
       </c>
     </row>
     <row r="437">
@@ -12688,7 +12688,7 @@
         </is>
       </c>
       <c r="F437" t="n">
-        <v>276714.7444333316</v>
+        <v>274378.2948899639</v>
       </c>
     </row>
     <row r="438">
@@ -12715,7 +12715,7 @@
         </is>
       </c>
       <c r="F438" t="n">
-        <v>194991.314418066</v>
+        <v>193344.8991955388</v>
       </c>
     </row>
     <row r="439">
@@ -12742,7 +12742,7 @@
         </is>
       </c>
       <c r="F439" t="n">
-        <v>7540.664315418224</v>
+        <v>7476.994481949365</v>
       </c>
     </row>
     <row r="440">
@@ -12768,7 +12768,7 @@
         </is>
       </c>
       <c r="F440" t="n">
-        <v>276714.7444333316</v>
+        <v>274378.2948899639</v>
       </c>
     </row>
     <row r="441">
@@ -12795,7 +12795,7 @@
         </is>
       </c>
       <c r="F441" t="n">
-        <v>194991.314418066</v>
+        <v>193344.8991955388</v>
       </c>
     </row>
     <row r="442">
@@ -12822,7 +12822,7 @@
         </is>
       </c>
       <c r="F442" t="n">
-        <v>7540.664315418224</v>
+        <v>7476.994481949365</v>
       </c>
     </row>
     <row r="443">
@@ -12848,7 +12848,7 @@
         </is>
       </c>
       <c r="F443" t="n">
-        <v>276714.7444333316</v>
+        <v>274378.2948899639</v>
       </c>
     </row>
     <row r="444">
@@ -12875,7 +12875,7 @@
         </is>
       </c>
       <c r="F444" t="n">
-        <v>194991.314418066</v>
+        <v>193344.8991955388</v>
       </c>
     </row>
     <row r="445">
@@ -12902,7 +12902,7 @@
         </is>
       </c>
       <c r="F445" t="n">
-        <v>7540.664315418224</v>
+        <v>7476.994481949365</v>
       </c>
     </row>
     <row r="446">
@@ -12928,7 +12928,7 @@
         </is>
       </c>
       <c r="F446" t="n">
-        <v>276714.7444333316</v>
+        <v>274378.2948899639</v>
       </c>
     </row>
     <row r="447">
@@ -12955,7 +12955,7 @@
         </is>
       </c>
       <c r="F447" t="n">
-        <v>194991.314418066</v>
+        <v>193344.8991955388</v>
       </c>
     </row>
     <row r="448">
@@ -12982,7 +12982,7 @@
         </is>
       </c>
       <c r="F448" t="n">
-        <v>7540.664315418224</v>
+        <v>7476.994481949365</v>
       </c>
     </row>
     <row r="449">
@@ -13008,7 +13008,7 @@
         </is>
       </c>
       <c r="F449" t="n">
-        <v>276714.7444333316</v>
+        <v>274378.2948899639</v>
       </c>
     </row>
     <row r="450">
@@ -13035,7 +13035,7 @@
         </is>
       </c>
       <c r="F450" t="n">
-        <v>194991.314418066</v>
+        <v>193344.8991955388</v>
       </c>
     </row>
     <row r="451">
@@ -13062,7 +13062,7 @@
         </is>
       </c>
       <c r="F451" t="n">
-        <v>7540.664315418224</v>
+        <v>7476.994481949365</v>
       </c>
     </row>
     <row r="452">
@@ -13088,7 +13088,7 @@
         </is>
       </c>
       <c r="F452" t="n">
-        <v>276714.7444333316</v>
+        <v>274378.2948899639</v>
       </c>
     </row>
     <row r="453">
@@ -13115,7 +13115,7 @@
         </is>
       </c>
       <c r="F453" t="n">
-        <v>194991.314418066</v>
+        <v>193344.8991955388</v>
       </c>
     </row>
     <row r="454">
@@ -13142,7 +13142,7 @@
         </is>
       </c>
       <c r="F454" t="n">
-        <v>7540.664315418224</v>
+        <v>7476.994481949365</v>
       </c>
     </row>
     <row r="455">
@@ -13168,7 +13168,7 @@
         </is>
       </c>
       <c r="F455" t="n">
-        <v>276714.7444333316</v>
+        <v>274378.2948899639</v>
       </c>
     </row>
     <row r="456">
@@ -13195,7 +13195,7 @@
         </is>
       </c>
       <c r="F456" t="n">
-        <v>194991.314418066</v>
+        <v>193344.8991955388</v>
       </c>
     </row>
     <row r="457">
@@ -13222,7 +13222,7 @@
         </is>
       </c>
       <c r="F457" t="n">
-        <v>7540.664315418224</v>
+        <v>7476.994481949365</v>
       </c>
     </row>
     <row r="458">
@@ -13248,7 +13248,7 @@
         </is>
       </c>
       <c r="F458" t="n">
-        <v>276714.7444333316</v>
+        <v>274378.2948899639</v>
       </c>
     </row>
     <row r="459">
@@ -13275,7 +13275,7 @@
         </is>
       </c>
       <c r="F459" t="n">
-        <v>194991.314418066</v>
+        <v>193344.8991955388</v>
       </c>
     </row>
     <row r="460">
@@ -13302,7 +13302,7 @@
         </is>
       </c>
       <c r="F460" t="n">
-        <v>7540.664315418224</v>
+        <v>7476.994481949365</v>
       </c>
     </row>
     <row r="461">
@@ -13328,7 +13328,7 @@
         </is>
       </c>
       <c r="F461" t="n">
-        <v>276714.7444333316</v>
+        <v>274378.2948899639</v>
       </c>
     </row>
     <row r="462">
@@ -13355,7 +13355,7 @@
         </is>
       </c>
       <c r="F462" t="n">
-        <v>194991.314418066</v>
+        <v>193344.8991955388</v>
       </c>
     </row>
     <row r="463">
@@ -13382,7 +13382,7 @@
         </is>
       </c>
       <c r="F463" t="n">
-        <v>7540.664315418224</v>
+        <v>7476.994481949365</v>
       </c>
     </row>
     <row r="464">
@@ -13408,7 +13408,7 @@
         </is>
       </c>
       <c r="F464" t="n">
-        <v>276714.7444333316</v>
+        <v>274378.2948899639</v>
       </c>
     </row>
     <row r="465">
@@ -13435,7 +13435,7 @@
         </is>
       </c>
       <c r="F465" t="n">
-        <v>194991.314418066</v>
+        <v>193344.8991955388</v>
       </c>
     </row>
     <row r="466">
@@ -13462,7 +13462,7 @@
         </is>
       </c>
       <c r="F466" t="n">
-        <v>7540.664315418224</v>
+        <v>7476.994481949365</v>
       </c>
     </row>
     <row r="467">
@@ -13488,7 +13488,7 @@
         </is>
       </c>
       <c r="F467" t="n">
-        <v>276714.7444333316</v>
+        <v>274378.2948899639</v>
       </c>
     </row>
     <row r="468">
@@ -13515,7 +13515,7 @@
         </is>
       </c>
       <c r="F468" t="n">
-        <v>194991.314418066</v>
+        <v>193344.8991955388</v>
       </c>
     </row>
     <row r="469">
@@ -13542,7 +13542,7 @@
         </is>
       </c>
       <c r="F469" t="n">
-        <v>7540.664315418224</v>
+        <v>7476.994481949365</v>
       </c>
     </row>
     <row r="470">
@@ -13568,7 +13568,7 @@
         </is>
       </c>
       <c r="F470" t="n">
-        <v>276714.7444333316</v>
+        <v>274378.2948899639</v>
       </c>
     </row>
     <row r="471">
@@ -13595,7 +13595,7 @@
         </is>
       </c>
       <c r="F471" t="n">
-        <v>194991.314418066</v>
+        <v>193344.8991955388</v>
       </c>
     </row>
     <row r="472">
@@ -13622,7 +13622,7 @@
         </is>
       </c>
       <c r="F472" t="n">
-        <v>7540.664315418224</v>
+        <v>7476.994481949365</v>
       </c>
     </row>
     <row r="473">
@@ -13648,7 +13648,7 @@
         </is>
       </c>
       <c r="F473" t="n">
-        <v>276714.7444333316</v>
+        <v>274378.2948899639</v>
       </c>
     </row>
     <row r="474">
@@ -13675,7 +13675,7 @@
         </is>
       </c>
       <c r="F474" t="n">
-        <v>194991.314418066</v>
+        <v>193344.8991955388</v>
       </c>
     </row>
     <row r="475">
@@ -13702,7 +13702,7 @@
         </is>
       </c>
       <c r="F475" t="n">
-        <v>7540.664315418224</v>
+        <v>7476.994481949365</v>
       </c>
     </row>
     <row r="476">
@@ -13728,7 +13728,7 @@
         </is>
       </c>
       <c r="F476" t="n">
-        <v>276714.7444333316</v>
+        <v>274378.2948899639</v>
       </c>
     </row>
     <row r="477">
@@ -13755,7 +13755,7 @@
         </is>
       </c>
       <c r="F477" t="n">
-        <v>194991.314418066</v>
+        <v>193344.8991955388</v>
       </c>
     </row>
     <row r="478">
@@ -13782,7 +13782,7 @@
         </is>
       </c>
       <c r="F478" t="n">
-        <v>7540.664315418224</v>
+        <v>7476.994481949365</v>
       </c>
     </row>
     <row r="479">
@@ -13808,7 +13808,7 @@
         </is>
       </c>
       <c r="F479" t="n">
-        <v>276714.7444333316</v>
+        <v>274378.2948899639</v>
       </c>
     </row>
     <row r="480">
@@ -13835,7 +13835,7 @@
         </is>
       </c>
       <c r="F480" t="n">
-        <v>194991.314418066</v>
+        <v>193344.8991955388</v>
       </c>
     </row>
     <row r="481">
@@ -13862,7 +13862,7 @@
         </is>
       </c>
       <c r="F481" t="n">
-        <v>7540.664315418224</v>
+        <v>7476.994481949365</v>
       </c>
     </row>
     <row r="482">
@@ -13888,7 +13888,7 @@
         </is>
       </c>
       <c r="F482" t="n">
-        <v>27671474.44333316</v>
+        <v>27437829.48899639</v>
       </c>
     </row>
     <row r="483">
@@ -13915,7 +13915,7 @@
         </is>
       </c>
       <c r="F483" t="n">
-        <v>19499131.4418066</v>
+        <v>19334489.91955388</v>
       </c>
     </row>
     <row r="484">
@@ -13942,7 +13942,7 @@
         </is>
       </c>
       <c r="F484" t="n">
-        <v>754066.4315418224</v>
+        <v>747699.4481949365</v>
       </c>
     </row>
     <row r="485">
@@ -13968,7 +13968,7 @@
         </is>
       </c>
       <c r="F485" t="n">
-        <v>27671474.44333316</v>
+        <v>27437829.48899639</v>
       </c>
     </row>
     <row r="486">
@@ -13995,7 +13995,7 @@
         </is>
       </c>
       <c r="F486" t="n">
-        <v>19499131.4418066</v>
+        <v>19334489.91955388</v>
       </c>
     </row>
     <row r="487">
@@ -14022,7 +14022,7 @@
         </is>
       </c>
       <c r="F487" t="n">
-        <v>754066.4315418224</v>
+        <v>747699.4481949365</v>
       </c>
     </row>
     <row r="488">
@@ -14048,7 +14048,7 @@
         </is>
       </c>
       <c r="F488" t="n">
-        <v>27671474.44333316</v>
+        <v>27437829.48899639</v>
       </c>
     </row>
     <row r="489">
@@ -14075,7 +14075,7 @@
         </is>
       </c>
       <c r="F489" t="n">
-        <v>19499131.4418066</v>
+        <v>19334489.91955388</v>
       </c>
     </row>
     <row r="490">
@@ -14102,7 +14102,7 @@
         </is>
       </c>
       <c r="F490" t="n">
-        <v>754066.4315418224</v>
+        <v>747699.4481949365</v>
       </c>
     </row>
     <row r="491">
@@ -14128,7 +14128,7 @@
         </is>
       </c>
       <c r="F491" t="n">
-        <v>27671474.44333316</v>
+        <v>27437829.48899639</v>
       </c>
     </row>
     <row r="492">
@@ -14155,7 +14155,7 @@
         </is>
       </c>
       <c r="F492" t="n">
-        <v>19499131.4418066</v>
+        <v>19334489.91955388</v>
       </c>
     </row>
     <row r="493">
@@ -14182,7 +14182,7 @@
         </is>
       </c>
       <c r="F493" t="n">
-        <v>754066.4315418224</v>
+        <v>747699.4481949365</v>
       </c>
     </row>
     <row r="494">
@@ -14208,7 +14208,7 @@
         </is>
       </c>
       <c r="F494" t="n">
-        <v>27671474.44333316</v>
+        <v>27437829.48899639</v>
       </c>
     </row>
     <row r="495">
@@ -14235,7 +14235,7 @@
         </is>
       </c>
       <c r="F495" t="n">
-        <v>19499131.4418066</v>
+        <v>19334489.91955388</v>
       </c>
     </row>
     <row r="496">
@@ -14262,7 +14262,7 @@
         </is>
       </c>
       <c r="F496" t="n">
-        <v>754066.4315418224</v>
+        <v>747699.4481949365</v>
       </c>
     </row>
     <row r="497">
@@ -14288,7 +14288,7 @@
         </is>
       </c>
       <c r="F497" t="n">
-        <v>27671474.44333316</v>
+        <v>27437829.48899639</v>
       </c>
     </row>
     <row r="498">
@@ -14315,7 +14315,7 @@
         </is>
       </c>
       <c r="F498" t="n">
-        <v>19499131.4418066</v>
+        <v>19334489.91955388</v>
       </c>
     </row>
     <row r="499">
@@ -14342,7 +14342,7 @@
         </is>
       </c>
       <c r="F499" t="n">
-        <v>754066.4315418224</v>
+        <v>747699.4481949365</v>
       </c>
     </row>
     <row r="500">
@@ -14368,7 +14368,7 @@
         </is>
       </c>
       <c r="F500" t="n">
-        <v>27671474.44333316</v>
+        <v>27437829.48899639</v>
       </c>
     </row>
     <row r="501">
@@ -14395,7 +14395,7 @@
         </is>
       </c>
       <c r="F501" t="n">
-        <v>19499131.4418066</v>
+        <v>19334489.91955388</v>
       </c>
     </row>
     <row r="502">
@@ -14422,7 +14422,7 @@
         </is>
       </c>
       <c r="F502" t="n">
-        <v>754066.4315418224</v>
+        <v>747699.4481949365</v>
       </c>
     </row>
     <row r="503">
@@ -14448,7 +14448,7 @@
         </is>
       </c>
       <c r="F503" t="n">
-        <v>27671474.44333316</v>
+        <v>27437829.48899639</v>
       </c>
     </row>
     <row r="504">
@@ -14475,7 +14475,7 @@
         </is>
       </c>
       <c r="F504" t="n">
-        <v>19499131.4418066</v>
+        <v>19334489.91955388</v>
       </c>
     </row>
     <row r="505">
@@ -14502,7 +14502,7 @@
         </is>
       </c>
       <c r="F505" t="n">
-        <v>754066.4315418224</v>
+        <v>747699.4481949365</v>
       </c>
     </row>
     <row r="506">
@@ -14528,7 +14528,7 @@
         </is>
       </c>
       <c r="F506" t="n">
-        <v>27671474.44333316</v>
+        <v>27437829.48899639</v>
       </c>
     </row>
     <row r="507">
@@ -14555,7 +14555,7 @@
         </is>
       </c>
       <c r="F507" t="n">
-        <v>19499131.4418066</v>
+        <v>19334489.91955388</v>
       </c>
     </row>
     <row r="508">
@@ -14582,7 +14582,7 @@
         </is>
       </c>
       <c r="F508" t="n">
-        <v>754066.4315418224</v>
+        <v>747699.4481949365</v>
       </c>
     </row>
     <row r="509">
@@ -14608,7 +14608,7 @@
         </is>
       </c>
       <c r="F509" t="n">
-        <v>27671474.44333316</v>
+        <v>27437829.48899639</v>
       </c>
     </row>
     <row r="510">
@@ -14635,7 +14635,7 @@
         </is>
       </c>
       <c r="F510" t="n">
-        <v>19499131.4418066</v>
+        <v>19334489.91955388</v>
       </c>
     </row>
     <row r="511">
@@ -14662,7 +14662,7 @@
         </is>
       </c>
       <c r="F511" t="n">
-        <v>754066.4315418224</v>
+        <v>747699.4481949365</v>
       </c>
     </row>
     <row r="512">
@@ -14688,7 +14688,7 @@
         </is>
       </c>
       <c r="F512" t="n">
-        <v>27671474.44333316</v>
+        <v>27437829.48899639</v>
       </c>
     </row>
     <row r="513">
@@ -14715,7 +14715,7 @@
         </is>
       </c>
       <c r="F513" t="n">
-        <v>19499131.4418066</v>
+        <v>19334489.91955388</v>
       </c>
     </row>
     <row r="514">
@@ -14742,7 +14742,7 @@
         </is>
       </c>
       <c r="F514" t="n">
-        <v>754066.4315418224</v>
+        <v>747699.4481949365</v>
       </c>
     </row>
     <row r="515">
@@ -14768,7 +14768,7 @@
         </is>
       </c>
       <c r="F515" t="n">
-        <v>27671474.44333316</v>
+        <v>27437829.48899639</v>
       </c>
     </row>
     <row r="516">
@@ -14795,7 +14795,7 @@
         </is>
       </c>
       <c r="F516" t="n">
-        <v>19499131.4418066</v>
+        <v>19334489.91955388</v>
       </c>
     </row>
     <row r="517">
@@ -14822,7 +14822,7 @@
         </is>
       </c>
       <c r="F517" t="n">
-        <v>754066.4315418224</v>
+        <v>747699.4481949365</v>
       </c>
     </row>
     <row r="518">
@@ -14848,7 +14848,7 @@
         </is>
       </c>
       <c r="F518" t="n">
-        <v>27671474.44333316</v>
+        <v>27437829.48899639</v>
       </c>
     </row>
     <row r="519">
@@ -14875,7 +14875,7 @@
         </is>
       </c>
       <c r="F519" t="n">
-        <v>19499131.4418066</v>
+        <v>19334489.91955388</v>
       </c>
     </row>
     <row r="520">
@@ -14902,7 +14902,7 @@
         </is>
       </c>
       <c r="F520" t="n">
-        <v>754066.4315418224</v>
+        <v>747699.4481949365</v>
       </c>
     </row>
     <row r="521">
@@ -14928,7 +14928,7 @@
         </is>
       </c>
       <c r="F521" t="n">
-        <v>27671474.44333316</v>
+        <v>27437829.48899639</v>
       </c>
     </row>
     <row r="522">
@@ -14955,7 +14955,7 @@
         </is>
       </c>
       <c r="F522" t="n">
-        <v>19499131.4418066</v>
+        <v>19334489.91955388</v>
       </c>
     </row>
     <row r="523">
@@ -14982,7 +14982,7 @@
         </is>
       </c>
       <c r="F523" t="n">
-        <v>754066.4315418224</v>
+        <v>747699.4481949365</v>
       </c>
     </row>
     <row r="524">
@@ -15008,7 +15008,7 @@
         </is>
       </c>
       <c r="F524" t="n">
-        <v>27671474.44333316</v>
+        <v>27437829.48899639</v>
       </c>
     </row>
     <row r="525">
@@ -15035,7 +15035,7 @@
         </is>
       </c>
       <c r="F525" t="n">
-        <v>19499131.4418066</v>
+        <v>19334489.91955388</v>
       </c>
     </row>
     <row r="526">
@@ -15062,7 +15062,7 @@
         </is>
       </c>
       <c r="F526" t="n">
-        <v>754066.4315418224</v>
+        <v>747699.4481949365</v>
       </c>
     </row>
     <row r="527">
@@ -15088,7 +15088,7 @@
         </is>
       </c>
       <c r="F527" t="n">
-        <v>27671474.44333316</v>
+        <v>27437829.48899639</v>
       </c>
     </row>
     <row r="528">
@@ -15115,7 +15115,7 @@
         </is>
       </c>
       <c r="F528" t="n">
-        <v>19499131.4418066</v>
+        <v>19334489.91955388</v>
       </c>
     </row>
     <row r="529">
@@ -15142,7 +15142,7 @@
         </is>
       </c>
       <c r="F529" t="n">
-        <v>754066.4315418224</v>
+        <v>747699.4481949365</v>
       </c>
     </row>
     <row r="530">
@@ -15168,7 +15168,7 @@
         </is>
       </c>
       <c r="F530" t="n">
-        <v>27671474.44333316</v>
+        <v>27437829.48899639</v>
       </c>
     </row>
     <row r="531">
@@ -15195,7 +15195,7 @@
         </is>
       </c>
       <c r="F531" t="n">
-        <v>19499131.4418066</v>
+        <v>19334489.91955388</v>
       </c>
     </row>
     <row r="532">
@@ -15222,7 +15222,7 @@
         </is>
       </c>
       <c r="F532" t="n">
-        <v>754066.4315418224</v>
+        <v>747699.4481949365</v>
       </c>
     </row>
     <row r="533">
@@ -15248,7 +15248,7 @@
         </is>
       </c>
       <c r="F533" t="n">
-        <v>27671474.44333316</v>
+        <v>27437829.48899639</v>
       </c>
     </row>
     <row r="534">
@@ -15275,7 +15275,7 @@
         </is>
       </c>
       <c r="F534" t="n">
-        <v>19499131.4418066</v>
+        <v>19334489.91955388</v>
       </c>
     </row>
     <row r="535">
@@ -15302,7 +15302,7 @@
         </is>
       </c>
       <c r="F535" t="n">
-        <v>754066.4315418224</v>
+        <v>747699.4481949365</v>
       </c>
     </row>
     <row r="536">
@@ -15328,7 +15328,7 @@
         </is>
       </c>
       <c r="F536" t="n">
-        <v>27671474.44333316</v>
+        <v>27437829.48899639</v>
       </c>
     </row>
     <row r="537">
@@ -15355,7 +15355,7 @@
         </is>
       </c>
       <c r="F537" t="n">
-        <v>19499131.4418066</v>
+        <v>19334489.91955388</v>
       </c>
     </row>
     <row r="538">
@@ -15382,7 +15382,7 @@
         </is>
       </c>
       <c r="F538" t="n">
-        <v>754066.4315418224</v>
+        <v>747699.4481949365</v>
       </c>
     </row>
     <row r="539">
@@ -15408,7 +15408,7 @@
         </is>
       </c>
       <c r="F539" t="n">
-        <v>27671474.44333316</v>
+        <v>27437829.48899639</v>
       </c>
     </row>
     <row r="540">
@@ -15435,7 +15435,7 @@
         </is>
       </c>
       <c r="F540" t="n">
-        <v>19499131.4418066</v>
+        <v>19334489.91955388</v>
       </c>
     </row>
     <row r="541">
@@ -15462,7 +15462,7 @@
         </is>
       </c>
       <c r="F541" t="n">
-        <v>754066.4315418224</v>
+        <v>747699.4481949365</v>
       </c>
     </row>
     <row r="542">
@@ -15488,7 +15488,7 @@
         </is>
       </c>
       <c r="F542" t="n">
-        <v>276714744.4333316</v>
+        <v>274378294.8899639</v>
       </c>
     </row>
     <row r="543">
@@ -15515,7 +15515,7 @@
         </is>
       </c>
       <c r="F543" t="n">
-        <v>194991314.418066</v>
+        <v>193344899.1955388</v>
       </c>
     </row>
     <row r="544">
@@ -15542,7 +15542,7 @@
         </is>
       </c>
       <c r="F544" t="n">
-        <v>7540664.315418224</v>
+        <v>7476994.481949365</v>
       </c>
     </row>
     <row r="545">
@@ -15568,7 +15568,7 @@
         </is>
       </c>
       <c r="F545" t="n">
-        <v>276714744.4333316</v>
+        <v>274378294.8899639</v>
       </c>
     </row>
     <row r="546">
@@ -15595,7 +15595,7 @@
         </is>
       </c>
       <c r="F546" t="n">
-        <v>194991314.418066</v>
+        <v>193344899.1955388</v>
       </c>
     </row>
     <row r="547">
@@ -15622,7 +15622,7 @@
         </is>
       </c>
       <c r="F547" t="n">
-        <v>7540664.315418224</v>
+        <v>7476994.481949365</v>
       </c>
     </row>
     <row r="548">
@@ -15648,7 +15648,7 @@
         </is>
       </c>
       <c r="F548" t="n">
-        <v>276714744.4333316</v>
+        <v>274378294.8899639</v>
       </c>
     </row>
     <row r="549">
@@ -15675,7 +15675,7 @@
         </is>
       </c>
       <c r="F549" t="n">
-        <v>194991314.418066</v>
+        <v>193344899.1955388</v>
       </c>
     </row>
     <row r="550">
@@ -15702,7 +15702,7 @@
         </is>
       </c>
       <c r="F550" t="n">
-        <v>7540664.315418224</v>
+        <v>7476994.481949365</v>
       </c>
     </row>
     <row r="551">
@@ -15728,7 +15728,7 @@
         </is>
       </c>
       <c r="F551" t="n">
-        <v>276714744.4333316</v>
+        <v>274378294.8899639</v>
       </c>
     </row>
     <row r="552">
@@ -15755,7 +15755,7 @@
         </is>
       </c>
       <c r="F552" t="n">
-        <v>194991314.418066</v>
+        <v>193344899.1955388</v>
       </c>
     </row>
     <row r="553">
@@ -15782,7 +15782,7 @@
         </is>
       </c>
       <c r="F553" t="n">
-        <v>7540664.315418224</v>
+        <v>7476994.481949365</v>
       </c>
     </row>
     <row r="554">
@@ -15808,7 +15808,7 @@
         </is>
       </c>
       <c r="F554" t="n">
-        <v>276714744.4333316</v>
+        <v>274378294.8899639</v>
       </c>
     </row>
     <row r="555">
@@ -15835,7 +15835,7 @@
         </is>
       </c>
       <c r="F555" t="n">
-        <v>194991314.418066</v>
+        <v>193344899.1955388</v>
       </c>
     </row>
     <row r="556">
@@ -15862,7 +15862,7 @@
         </is>
       </c>
       <c r="F556" t="n">
-        <v>7540664.315418224</v>
+        <v>7476994.481949365</v>
       </c>
     </row>
     <row r="557">
@@ -15888,7 +15888,7 @@
         </is>
       </c>
       <c r="F557" t="n">
-        <v>276714744.4333316</v>
+        <v>274378294.8899639</v>
       </c>
     </row>
     <row r="558">
@@ -15915,7 +15915,7 @@
         </is>
       </c>
       <c r="F558" t="n">
-        <v>194991314.418066</v>
+        <v>193344899.1955388</v>
       </c>
     </row>
     <row r="559">
@@ -15942,7 +15942,7 @@
         </is>
       </c>
       <c r="F559" t="n">
-        <v>7540664.315418224</v>
+        <v>7476994.481949365</v>
       </c>
     </row>
     <row r="560">
@@ -15968,7 +15968,7 @@
         </is>
       </c>
       <c r="F560" t="n">
-        <v>276714744.4333316</v>
+        <v>274378294.8899639</v>
       </c>
     </row>
     <row r="561">
@@ -15995,7 +15995,7 @@
         </is>
       </c>
       <c r="F561" t="n">
-        <v>194991314.418066</v>
+        <v>193344899.1955388</v>
       </c>
     </row>
     <row r="562">
@@ -16022,7 +16022,7 @@
         </is>
       </c>
       <c r="F562" t="n">
-        <v>7540664.315418224</v>
+        <v>7476994.481949365</v>
       </c>
     </row>
     <row r="563">
@@ -16048,7 +16048,7 @@
         </is>
       </c>
       <c r="F563" t="n">
-        <v>276714744.4333316</v>
+        <v>274378294.8899639</v>
       </c>
     </row>
     <row r="564">
@@ -16075,7 +16075,7 @@
         </is>
       </c>
       <c r="F564" t="n">
-        <v>194991314.418066</v>
+        <v>193344899.1955388</v>
       </c>
     </row>
     <row r="565">
@@ -16102,7 +16102,7 @@
         </is>
       </c>
       <c r="F565" t="n">
-        <v>7540664.315418224</v>
+        <v>7476994.481949365</v>
       </c>
     </row>
     <row r="566">
@@ -16128,7 +16128,7 @@
         </is>
       </c>
       <c r="F566" t="n">
-        <v>276714744.4333316</v>
+        <v>274378294.8899639</v>
       </c>
     </row>
     <row r="567">
@@ -16155,7 +16155,7 @@
         </is>
       </c>
       <c r="F567" t="n">
-        <v>194991314.418066</v>
+        <v>193344899.1955388</v>
       </c>
     </row>
     <row r="568">
@@ -16182,7 +16182,7 @@
         </is>
       </c>
       <c r="F568" t="n">
-        <v>7540664.315418224</v>
+        <v>7476994.481949365</v>
       </c>
     </row>
     <row r="569">
@@ -16208,7 +16208,7 @@
         </is>
       </c>
       <c r="F569" t="n">
-        <v>276714744.4333316</v>
+        <v>274378294.8899639</v>
       </c>
     </row>
     <row r="570">
@@ -16235,7 +16235,7 @@
         </is>
       </c>
       <c r="F570" t="n">
-        <v>194991314.418066</v>
+        <v>193344899.1955388</v>
       </c>
     </row>
     <row r="571">
@@ -16262,7 +16262,7 @@
         </is>
       </c>
       <c r="F571" t="n">
-        <v>7540664.315418224</v>
+        <v>7476994.481949365</v>
       </c>
     </row>
     <row r="572">
@@ -16288,7 +16288,7 @@
         </is>
       </c>
       <c r="F572" t="n">
-        <v>276714744.4333316</v>
+        <v>274378294.8899639</v>
       </c>
     </row>
     <row r="573">
@@ -16315,7 +16315,7 @@
         </is>
       </c>
       <c r="F573" t="n">
-        <v>194991314.418066</v>
+        <v>193344899.1955388</v>
       </c>
     </row>
     <row r="574">
@@ -16342,7 +16342,7 @@
         </is>
       </c>
       <c r="F574" t="n">
-        <v>7540664.315418224</v>
+        <v>7476994.481949365</v>
       </c>
     </row>
     <row r="575">
@@ -16368,7 +16368,7 @@
         </is>
       </c>
       <c r="F575" t="n">
-        <v>276714744.4333316</v>
+        <v>274378294.8899639</v>
       </c>
     </row>
     <row r="576">
@@ -16395,7 +16395,7 @@
         </is>
       </c>
       <c r="F576" t="n">
-        <v>194991314.418066</v>
+        <v>193344899.1955388</v>
       </c>
     </row>
     <row r="577">
@@ -16422,7 +16422,7 @@
         </is>
       </c>
       <c r="F577" t="n">
-        <v>7540664.315418224</v>
+        <v>7476994.481949365</v>
       </c>
     </row>
     <row r="578">
@@ -16448,7 +16448,7 @@
         </is>
       </c>
       <c r="F578" t="n">
-        <v>276714744.4333316</v>
+        <v>274378294.8899639</v>
       </c>
     </row>
     <row r="579">
@@ -16475,7 +16475,7 @@
         </is>
       </c>
       <c r="F579" t="n">
-        <v>194991314.418066</v>
+        <v>193344899.1955388</v>
       </c>
     </row>
     <row r="580">
@@ -16502,7 +16502,7 @@
         </is>
       </c>
       <c r="F580" t="n">
-        <v>7540664.315418224</v>
+        <v>7476994.481949365</v>
       </c>
     </row>
     <row r="581">
@@ -16528,7 +16528,7 @@
         </is>
       </c>
       <c r="F581" t="n">
-        <v>276714744.4333316</v>
+        <v>274378294.8899639</v>
       </c>
     </row>
     <row r="582">
@@ -16555,7 +16555,7 @@
         </is>
       </c>
       <c r="F582" t="n">
-        <v>194991314.418066</v>
+        <v>193344899.1955388</v>
       </c>
     </row>
     <row r="583">
@@ -16582,7 +16582,7 @@
         </is>
       </c>
       <c r="F583" t="n">
-        <v>7540664.315418224</v>
+        <v>7476994.481949365</v>
       </c>
     </row>
     <row r="584">
@@ -16608,7 +16608,7 @@
         </is>
       </c>
       <c r="F584" t="n">
-        <v>276714744.4333316</v>
+        <v>274378294.8899639</v>
       </c>
     </row>
     <row r="585">
@@ -16635,7 +16635,7 @@
         </is>
       </c>
       <c r="F585" t="n">
-        <v>194991314.418066</v>
+        <v>193344899.1955388</v>
       </c>
     </row>
     <row r="586">
@@ -16662,7 +16662,7 @@
         </is>
       </c>
       <c r="F586" t="n">
-        <v>7540664.315418224</v>
+        <v>7476994.481949365</v>
       </c>
     </row>
     <row r="587">
@@ -16688,7 +16688,7 @@
         </is>
       </c>
       <c r="F587" t="n">
-        <v>276714744.4333316</v>
+        <v>274378294.8899639</v>
       </c>
     </row>
     <row r="588">
@@ -16715,7 +16715,7 @@
         </is>
       </c>
       <c r="F588" t="n">
-        <v>194991314.418066</v>
+        <v>193344899.1955388</v>
       </c>
     </row>
     <row r="589">
@@ -16742,7 +16742,7 @@
         </is>
       </c>
       <c r="F589" t="n">
-        <v>7540664.315418224</v>
+        <v>7476994.481949365</v>
       </c>
     </row>
     <row r="590">
@@ -16768,7 +16768,7 @@
         </is>
       </c>
       <c r="F590" t="n">
-        <v>276714744.4333316</v>
+        <v>274378294.8899639</v>
       </c>
     </row>
     <row r="591">
@@ -16795,7 +16795,7 @@
         </is>
       </c>
       <c r="F591" t="n">
-        <v>194991314.418066</v>
+        <v>193344899.1955388</v>
       </c>
     </row>
     <row r="592">
@@ -16822,7 +16822,7 @@
         </is>
       </c>
       <c r="F592" t="n">
-        <v>7540664.315418224</v>
+        <v>7476994.481949365</v>
       </c>
     </row>
     <row r="593">
@@ -16848,7 +16848,7 @@
         </is>
       </c>
       <c r="F593" t="n">
-        <v>276714744.4333316</v>
+        <v>274378294.8899639</v>
       </c>
     </row>
     <row r="594">
@@ -16875,7 +16875,7 @@
         </is>
       </c>
       <c r="F594" t="n">
-        <v>194991314.418066</v>
+        <v>193344899.1955388</v>
       </c>
     </row>
     <row r="595">
@@ -16902,7 +16902,7 @@
         </is>
       </c>
       <c r="F595" t="n">
-        <v>7540664.315418224</v>
+        <v>7476994.481949365</v>
       </c>
     </row>
     <row r="596">
@@ -16928,7 +16928,7 @@
         </is>
       </c>
       <c r="F596" t="n">
-        <v>276714744.4333316</v>
+        <v>274378294.8899639</v>
       </c>
     </row>
     <row r="597">
@@ -16955,7 +16955,7 @@
         </is>
       </c>
       <c r="F597" t="n">
-        <v>194991314.418066</v>
+        <v>193344899.1955388</v>
       </c>
     </row>
     <row r="598">
@@ -16982,7 +16982,7 @@
         </is>
       </c>
       <c r="F598" t="n">
-        <v>7540664.315418224</v>
+        <v>7476994.481949365</v>
       </c>
     </row>
     <row r="599">
@@ -17008,7 +17008,7 @@
         </is>
       </c>
       <c r="F599" t="n">
-        <v>276714744.4333316</v>
+        <v>274378294.8899639</v>
       </c>
     </row>
     <row r="600">
@@ -17035,7 +17035,7 @@
         </is>
       </c>
       <c r="F600" t="n">
-        <v>194991314.418066</v>
+        <v>193344899.1955388</v>
       </c>
     </row>
     <row r="601">
@@ -17062,7 +17062,7 @@
         </is>
       </c>
       <c r="F601" t="n">
-        <v>7540664.315418224</v>
+        <v>7476994.481949365</v>
       </c>
     </row>
   </sheetData>
